--- a/삼성_기록.xlsx
+++ b/삼성_기록.xlsx
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.385</v>
+        <v>0.362</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G2" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -582,19 +582,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.339</v>
+        <v>0.333</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G3" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n">
         <v>40</v>
@@ -636,16 +636,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.229</v>
+        <v>0.225</v>
       </c>
       <c r="E4" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G4" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H4" t="n">
         <v>11</v>
@@ -786,22 +786,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.308</v>
+        <v>0.283</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G2" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>5</v>
@@ -894,22 +894,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.278</v>
+        <v>0.274</v>
       </c>
       <c r="E4" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F4" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="G4" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" t="n">
         <v>17</v>
@@ -921,7 +921,7 @@
         <v>12</v>
       </c>
       <c r="M4" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N4" t="n">
         <v>43</v>
@@ -948,19 +948,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.271</v>
+        <v>0.259</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G5" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
         <v>35</v>
@@ -981,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이태훈</t>
+          <t>김호재</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1221,22 +1221,22 @@
         <v>0.2</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1245,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>최영진</t>
+          <t>이태훈</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1272,25 +1272,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.179</v>
+        <v>0.2</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>김호재</t>
+          <t>최영진</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.176</v>
+        <v>0.186</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.143</v>
+        <v>0.125</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1692,22 +1692,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.342</v>
+        <v>0.338</v>
       </c>
       <c r="E2" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="G2" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H2" t="n">
         <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J2" t="n">
         <v>14</v>
@@ -1719,10 +1719,10 @@
         <v>12</v>
       </c>
       <c r="M2" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1746,25 +1746,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.308</v>
+        <v>0.316</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G3" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N3" t="n">
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2016,22 +2016,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>송준석</t>
+          <t>김헌곤</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2070,26 +2070,26 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.182</v>
+        <v>0.173</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="H9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I9" t="n">
+        <v>28</v>
+      </c>
+      <c r="J9" t="n">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -2097,16 +2097,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>김헌곤</t>
+          <t>송준석</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2124,25 +2124,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="E10" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -2151,16 +2151,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2282,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2303,44 +2303,44 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>ERA</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>SV</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>HLD</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>WPCT</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>IP</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>H</t>
@@ -2379,6 +2379,76 @@
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>WHIP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>CG</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>SHO</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>BSV</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>TBF</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>WP</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>BK</t>
         </is>
       </c>
     </row>
@@ -2396,15 +2466,17 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1 2/3</t>
+        </is>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
@@ -2414,55 +2486,79 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1 2/3</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2479,15 +2575,17 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>1.29</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>12</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -2495,57 +2593,81 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>145</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2562,14 +2684,16 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5 1/3</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>1.69</v>
       </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2580,55 +2704,79 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>5 1/3</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>93</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2645,71 +2793,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1.93</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>1.89</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>20</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>18 2/3</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>338</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2718,7 +2892,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>뷰캐넌</t>
+          <t>수아레즈</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2726,71 +2900,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2.3</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>85 2/3</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>2.31</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="L6" t="n">
+        <v>73</v>
+      </c>
+      <c r="M6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
+      <c r="N6" t="n">
+        <v>25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>29</v>
+      </c>
+      <c r="R6" t="n">
+        <v>22</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>353</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1485</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2799,7 +2999,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>수아레즈</t>
+          <t>뷰캐넌</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2807,71 +3007,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2.34</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>96 2/3</t>
+        </is>
       </c>
       <c r="E7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>23</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>77</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>30</v>
+      </c>
+      <c r="R7" t="n">
+        <v>26</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
         <v>14</v>
       </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>80 2/3</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>411</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1540</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2880,7 +3106,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>장필준</t>
+          <t>오승환</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2888,14 +3114,16 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2.51</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>2.48</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -2904,55 +3132,79 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>14 1/3</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>32</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>127</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>518</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2961,7 +3213,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>오승환</t>
+          <t>장필준</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2969,71 +3221,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2.57</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14 2/3</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>3.07</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>228</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3050,15 +3328,17 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5 1/3</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.38</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>5</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
@@ -3068,55 +3348,79 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>5 1/3</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3133,17 +3437,19 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>3.38</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>5</v>
       </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -3152,52 +3458,76 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>21</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>12</v>
+      </c>
+      <c r="R11" t="n">
+        <v>9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>104</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>389</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3206,7 +3536,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>원태인</t>
+          <t>김윤수</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3214,71 +3544,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>3.58</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18 1/3</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>3.44</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>75 1/3</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="L12" t="n">
+        <v>17</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>11</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>301</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3287,7 +3643,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>최충연</t>
+          <t>원태인</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3295,73 +3651,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>3.75</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>75 1/3</t>
+        </is>
       </c>
       <c r="E13" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F13" t="n">
         <v>12</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L13" t="n">
+        <v>76</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>26</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>32</v>
+      </c>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>321</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1212</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3370,7 +3750,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>김윤수</t>
+          <t>최충연</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3378,71 +3758,99 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>3.78</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>3.75</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>16 2/3</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>11</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>216</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3459,14 +3867,16 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2 1/3</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>3.86</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -3477,55 +3887,79 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2 1/3</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>52</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3542,71 +3976,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14 1/3</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>4.4</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>14</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.8</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>14 1/3</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
+      <c r="L16" t="n">
+        <v>9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>226</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3623,15 +4083,17 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>4.5</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>3</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
@@ -3641,55 +4103,79 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3706,71 +4192,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>4.5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>26</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>6</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>12</v>
+      </c>
+      <c r="R18" t="n">
+        <v>12</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>106</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>438</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3787,71 +4299,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15 1/3</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>4.7</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>4</v>
       </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.667</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>15 1/3</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
+      <c r="L19" t="n">
+        <v>14</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>8</v>
+      </c>
+      <c r="R19" t="n">
+        <v>8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>261</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3868,71 +4406,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>5.18</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25 1/3</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>4.97</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
         <v>4</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
+        <v>9</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.2</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>24 1/3</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
+      <c r="L20" t="n">
+        <v>24</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>16</v>
+      </c>
+      <c r="R20" t="n">
+        <v>14</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>112</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>421</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3949,71 +4513,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13 2/3</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>5.27</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>12</v>
       </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.667</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>13 2/3</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
+      <c r="L21" t="n">
+        <v>12</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>11</v>
+      </c>
+      <c r="R21" t="n">
+        <v>8</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>242</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4030,71 +4620,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>5.4</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>17</v>
       </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.5</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
+      <c r="L22" t="n">
+        <v>19</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>11</v>
+      </c>
+      <c r="R22" t="n">
+        <v>9</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>283</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4111,71 +4727,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>5.61</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>44 1/3</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>5.48</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.333</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>43 1/3</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
+      <c r="L23" t="n">
+        <v>56</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7</v>
+      </c>
+      <c r="N23" t="n">
+        <v>18</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>33</v>
+      </c>
+      <c r="R23" t="n">
+        <v>27</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>202</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>858</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -4192,71 +4834,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18 1/3</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>5.89</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>25</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>3</v>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.75</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>18 1/3</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
+      <c r="L24" t="n">
+        <v>23</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>15</v>
+      </c>
+      <c r="R24" t="n">
+        <v>12</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>301</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4273,71 +4941,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>61 1/3</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>6.31</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>11</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>7</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>61 1/3</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>78</v>
+      </c>
+      <c r="M25" t="n">
+        <v>14</v>
+      </c>
+      <c r="N25" t="n">
+        <v>19</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>44</v>
+      </c>
+      <c r="R25" t="n">
+        <v>43</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>279</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1020</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4354,71 +5048,97 @@
           <t>투수</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>11.25</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>6</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>106</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/삼성_기록.xlsx
+++ b/삼성_기록.xlsx
@@ -528,22 +528,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.362</v>
+        <v>0.346</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
@@ -582,22 +582,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H3" t="n">
         <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J3" t="n">
         <v>8</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
         <v>12</v>
@@ -636,22 +636,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.225</v>
+        <v>0.229</v>
       </c>
       <c r="E4" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F4" t="n">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="G4" t="n">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J4" t="n">
         <v>8</v>
@@ -660,13 +660,13 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -786,37 +786,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.283</v>
+        <v>0.289</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25</v>
+      </c>
+      <c r="N2" t="n">
         <v>5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>19</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>5</v>
@@ -897,19 +897,19 @@
         <v>0.274</v>
       </c>
       <c r="E4" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G4" t="n">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H4" t="n">
         <v>28</v>
       </c>
       <c r="I4" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="n">
         <v>17</v>
@@ -921,10 +921,10 @@
         <v>12</v>
       </c>
       <c r="M4" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -948,40 +948,40 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.259</v>
+        <v>0.264</v>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F5" t="n">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G5" t="n">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H5" t="n">
+        <v>14</v>
+      </c>
+      <c r="I5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>52</v>
+      </c>
+      <c r="N5" t="n">
+        <v>18</v>
+      </c>
+      <c r="O5" t="n">
         <v>11</v>
-      </c>
-      <c r="I5" t="n">
-        <v>35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>44</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>김호재</t>
+          <t>최영진</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1218,40 +1218,40 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2</v>
+        <v>0.208</v>
       </c>
       <c r="E10" t="n">
+        <v>39</v>
+      </c>
+      <c r="F10" t="n">
+        <v>82</v>
+      </c>
+      <c r="G10" t="n">
+        <v>72</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
         <v>15</v>
       </c>
-      <c r="F10" t="n">
-        <v>21</v>
-      </c>
-      <c r="G10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>최영진</t>
+          <t>김호재</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.186</v>
+        <v>0.174</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1542,19 +1542,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.083</v>
+        <v>0.059</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1692,22 +1692,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="E2" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="G2" t="n">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="H2" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J2" t="n">
         <v>14</v>
@@ -1719,10 +1719,10 @@
         <v>12</v>
       </c>
       <c r="M2" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1746,25 +1746,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.316</v>
+        <v>0.308</v>
       </c>
       <c r="E3" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="G3" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="H3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>4</v>
@@ -2016,16 +2016,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -2070,25 +2070,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.173</v>
+        <v>0.198</v>
       </c>
       <c r="E9" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F9" t="n">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G9" t="n">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2097,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.167</v>
+        <v>0.154</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
+        <v>28</v>
+      </c>
+      <c r="G10" t="n">
         <v>26</v>
-      </c>
-      <c r="G10" t="n">
-        <v>24</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -2795,14 +2795,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="F5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2814,13 +2814,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -2832,16 +2832,16 @@
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R5" t="n">
         <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -2856,13 +2856,13 @@
         <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="Y5" t="n">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.256</v>
+        <v>0.273</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>뷰캐넌</t>
+          <t>오승환</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3009,92 +3009,92 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>96 2/3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>130</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>532</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="AA7" t="n">
         <v>5</v>
       </c>
-      <c r="P7" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>30</v>
-      </c>
-      <c r="R7" t="n">
-        <v>26</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>14</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>411</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1540</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>오승환</t>
+          <t>뷰캐넌</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3116,92 +3116,92 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>100 2/3</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.545</v>
       </c>
       <c r="L8" t="n">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>26</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>36</v>
+      </c>
+      <c r="R8" t="n">
         <v>32</v>
       </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>10</v>
-      </c>
-      <c r="R8" t="n">
-        <v>8</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>127</v>
+        <v>434</v>
       </c>
       <c r="Y8" t="n">
-        <v>518</v>
+        <v>1634</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.271</v>
+        <v>0.268</v>
       </c>
       <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
         <v>5</v>
       </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1</v>
-      </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -3223,14 +3223,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14 2/3</t>
+          <t>15 2/3</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.07</v>
+        <v>2.87</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
@@ -3269,7 +3269,7 @@
         <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -3284,13 +3284,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Y9" t="n">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.286</v>
+        <v>0.288</v>
       </c>
       <c r="AA9" t="n">
         <v>4</v>
@@ -3330,14 +3330,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5 1/3</t>
+          <t>8 1/3</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -3357,28 +3357,28 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="n">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.286</v>
+        <v>0.226</v>
       </c>
       <c r="AA10" t="n">
         <v>2</v>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>허윤동</t>
+          <t>김윤수</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3439,53 +3439,53 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19 1/3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.38</v>
+        <v>3.26</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
       <c r="L11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q11" t="n">
         <v>11</v>
       </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>12</v>
-      </c>
       <c r="R11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -3500,31 +3500,31 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="Y11" t="n">
-        <v>389</v>
+        <v>316</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.231</v>
+        <v>0.243</v>
       </c>
       <c r="AA11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="n">
         <v>6</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>2</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>김윤수</t>
+          <t>허윤동</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3546,78 +3546,78 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18 1/3</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.667</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>14</v>
+      </c>
+      <c r="R12" t="n">
+        <v>11</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>126</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>487</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="AA12" t="n">
         <v>7</v>
       </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>11</v>
-      </c>
-      <c r="R12" t="n">
-        <v>7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>301</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>4</v>
-      </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
@@ -3628,10 +3628,10 @@
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -3653,17 +3653,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>75 1/3</t>
+          <t>81 1/3</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.58</v>
+        <v>3.43</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.375</v>
+        <v>0.444</v>
       </c>
       <c r="L13" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>26</v>
@@ -3690,16 +3690,16 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="Q13" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S13" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="Y13" t="n">
-        <v>1212</v>
+        <v>1297</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.263</v>
+        <v>0.255</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
@@ -3760,14 +3760,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14 2/3</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -3823,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="Y14" t="n">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.239</v>
+        <v>0.246</v>
       </c>
       <c r="AA14" t="n">
         <v>3</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>최하늘</t>
+          <t>홍정우</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3869,20 +3869,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2 1/3</t>
+          <t>14 1/3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.86</v>
+        <v>4.4</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -3890,34 +3890,32 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K15" t="n">
+        <v>0.8</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S15" t="n">
-        <v>2.57</v>
+        <v>1.26</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -3929,31 +3927,31 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="Y15" t="n">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.222</v>
+        <v>0.184</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -3968,7 +3966,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>홍정우</t>
+          <t>노성호</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3978,20 +3976,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14 1/3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -3999,32 +3997,34 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.8</v>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>3</v>
       </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>1.26</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -4036,31 +4036,31 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.184</v>
+        <v>0.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>노성호</t>
+          <t>이승현</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4085,94 +4085,92 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27 1/3</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.5</v>
+        <v>4.61</v>
       </c>
       <c r="F17" t="n">
+        <v>32</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>24</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>16</v>
+      </c>
+      <c r="R17" t="n">
+        <v>14</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>459</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="AA17" t="n">
         <v>3</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>2</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>3</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -4184,7 +4182,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>이승현</t>
+          <t>양창섭</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4194,17 +4192,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15 1/3</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="F18" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -4213,34 +4211,34 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="L18" t="n">
+        <v>14</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
         <v>6</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>25</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="n">
-        <v>12</v>
-      </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q18" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S18" t="n">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -4249,34 +4247,34 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Y18" t="n">
-        <v>438</v>
+        <v>261</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.281</v>
+        <v>0.246</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -4291,7 +4289,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>양창섭</t>
+          <t>임대한</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4301,14 +4299,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15 1/3</t>
+          <t>13 2/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.7</v>
+        <v>5.27</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -4320,34 +4318,34 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0.667</v>
       </c>
       <c r="L19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R19" t="n">
         <v>8</v>
       </c>
       <c r="S19" t="n">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -4356,37 +4354,37 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y19" t="n">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.246</v>
+        <v>0.24</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -4398,7 +4396,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>이승현</t>
+          <t>문용익</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4408,53 +4406,53 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25 1/3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.97</v>
+        <v>5.4</v>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>19</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
         <v>9</v>
       </c>
-      <c r="K20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>24</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10</v>
-      </c>
       <c r="O20" t="n">
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="Q20" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="R20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S20" t="n">
-        <v>1.34</v>
+        <v>1.87</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -4466,34 +4464,34 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="Y20" t="n">
-        <v>421</v>
+        <v>283</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.245</v>
+        <v>0.322</v>
       </c>
       <c r="AA20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -4505,7 +4503,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>임대한</t>
+          <t>이승현</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4515,17 +4513,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13 2/3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.27</v>
+        <v>5.88</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -4534,73 +4532,73 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="n">
+        <v>17</v>
+      </c>
+      <c r="R21" t="n">
+        <v>17</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>121</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>486</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AA21" t="n">
         <v>11</v>
       </c>
-      <c r="R21" t="n">
-        <v>8</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>242</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>5</v>
-      </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -4612,7 +4610,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>문용익</t>
+          <t>이재익</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4622,17 +4620,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18 1/3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.4</v>
+        <v>5.89</v>
       </c>
       <c r="F22" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -4641,34 +4639,34 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="L22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S22" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -4683,22 +4681,22 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="Y22" t="n">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.322</v>
+        <v>0.303</v>
       </c>
       <c r="AA22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4707,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -4719,7 +4717,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>황동재</t>
+          <t>최하늘</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4729,20 +4727,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>44 1/3</t>
+          <t>4 1/3</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.48</v>
+        <v>6.23</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -4750,32 +4748,34 @@
       <c r="J23" t="n">
         <v>0</v>
       </c>
-      <c r="K23" t="n">
-        <v>0.333</v>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L23" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -4784,22 +4784,22 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>858</v>
+        <v>88</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.304</v>
+        <v>0.235</v>
       </c>
       <c r="AA23" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>이재익</t>
+          <t>백정현</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4836,84 +4836,84 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18 1/3</t>
+          <t>64 1/3</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5.89</v>
+        <v>6.44</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>83</v>
+      </c>
+      <c r="M24" t="n">
+        <v>16</v>
+      </c>
+      <c r="N24" t="n">
+        <v>23</v>
+      </c>
+      <c r="O24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L24" t="n">
-        <v>23</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="P24" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>47</v>
+      </c>
+      <c r="R24" t="n">
+        <v>46</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>296</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1082</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC24" t="n">
         <v>3</v>
       </c>
-      <c r="N24" t="n">
-        <v>5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>15</v>
-      </c>
-      <c r="R24" t="n">
-        <v>12</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>84</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>301</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>2</v>
-      </c>
       <c r="AD24" t="n">
         <v>1</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>백정현</t>
+          <t>황동재</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4943,83 +4943,83 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>61 1/3</t>
+          <t>45 2/3</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.31</v>
+        <v>6.9</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="L25" t="n">
+        <v>64</v>
+      </c>
+      <c r="M25" t="n">
         <v>7</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>78</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
+        <v>21</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>41</v>
+      </c>
+      <c r="R25" t="n">
+        <v>35</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>217</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>929</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AA25" t="n">
         <v>14</v>
       </c>
-      <c r="N25" t="n">
-        <v>19</v>
-      </c>
-      <c r="O25" t="n">
-        <v>3</v>
-      </c>
-      <c r="P25" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>44</v>
-      </c>
-      <c r="R25" t="n">
-        <v>43</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>4</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>279</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1020</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>11</v>
-      </c>
       <c r="AB25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -5028,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">

--- a/삼성_기록.xlsx
+++ b/삼성_기록.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,22 +583,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.346</v>
+        <v>0.352</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G2" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -555,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
@@ -565,6 +620,39 @@
       </c>
       <c r="P2" t="n">
         <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>12</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.143</v>
       </c>
     </row>
     <row r="3">
@@ -582,22 +670,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.331</v>
+        <v>0.336</v>
       </c>
       <c r="E3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G3" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H3" t="n">
         <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" t="n">
         <v>8</v>
@@ -609,16 +697,49 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>3</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>18</v>
+      </c>
+      <c r="U3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.667</v>
       </c>
     </row>
     <row r="4">
@@ -636,16 +757,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.229</v>
+        <v>0.225</v>
       </c>
       <c r="E4" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G4" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H4" t="n">
         <v>14</v>
@@ -673,6 +794,39 @@
       </c>
       <c r="P4" t="n">
         <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>18</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>30</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.333</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +924,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -786,16 +995,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.289</v>
+        <v>0.282</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H2" t="n">
         <v>9</v>
@@ -822,6 +1031,39 @@
         <v>5</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>20</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,6 +1118,39 @@
         <v>9</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>24</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>31</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -894,16 +1169,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.274</v>
+        <v>0.272</v>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G4" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H4" t="n">
         <v>28</v>
@@ -931,6 +1206,39 @@
       </c>
       <c r="P4" t="n">
         <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>70</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -948,22 +1256,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.264</v>
+        <v>0.265</v>
       </c>
       <c r="E5" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G5" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H5" t="n">
         <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -975,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N5" t="n">
         <v>18</v>
@@ -985,6 +1293,39 @@
       </c>
       <c r="P5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>28</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1040,6 +1381,39 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1094,6 +1468,39 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
+      <c r="Q7" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>28</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1148,6 +1555,39 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>28</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1202,6 +1642,39 @@
       <c r="P9" t="n">
         <v>5</v>
       </c>
+      <c r="Q9" t="n">
+        <v>12</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>29</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1209,7 +1682,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>최영진</t>
+          <t>이태훈</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1218,43 +1691,76 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.208</v>
+        <v>0.2</v>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>4</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>25</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="11">
@@ -1263,7 +1769,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이태훈</t>
+          <t>최영진</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1275,40 +1781,73 @@
         <v>0.2</v>
       </c>
       <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>86</v>
+      </c>
+      <c r="G11" t="n">
+        <v>75</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>25</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>8</v>
       </c>
-      <c r="F11" t="n">
-        <v>16</v>
-      </c>
-      <c r="G11" t="n">
-        <v>15</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>17</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="Y11" t="n">
         <v>3</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
+      <c r="Z11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.286</v>
       </c>
     </row>
     <row r="12">
@@ -1317,7 +1856,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>김호재</t>
+          <t>공민규</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1326,25 +1865,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.174</v>
+        <v>0.167</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1353,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -1362,6 +1901,39 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1371,7 +1943,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>공민규</t>
+          <t>김상수</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1380,42 +1952,75 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.167</v>
+        <v>0.164</v>
       </c>
       <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="n">
+        <v>83</v>
+      </c>
+      <c r="G13" t="n">
+        <v>73</v>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>10</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>16</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="AA13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,7 +2030,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>김상수</t>
+          <t>김호재</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1434,42 +2039,75 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.164</v>
+        <v>0.16</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AA14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1491,10 +2129,10 @@
         <v>0.1</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -1524,6 +2162,39 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1542,19 +2213,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.059</v>
+        <v>0.053</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1578,6 +2249,39 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AA16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1592,7 +2296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1676,6 +2380,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1692,16 +2451,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.336</v>
+        <v>0.332</v>
       </c>
       <c r="E2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G2" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H2" t="n">
         <v>47</v>
@@ -1728,6 +2487,39 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>31</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7</v>
+      </c>
+      <c r="T2" t="n">
+        <v>33</v>
+      </c>
+      <c r="U2" t="n">
+        <v>11</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,22 +2538,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.308</v>
+        <v>0.306</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G3" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H3" t="n">
         <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" t="n">
         <v>9</v>
@@ -1773,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" t="n">
         <v>10</v>
@@ -1783,6 +2575,39 @@
       </c>
       <c r="P3" t="n">
         <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>18</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>28</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1838,6 +2663,39 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>39</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1892,6 +2750,39 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>20</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1946,6 +2837,39 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>9</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2000,6 +2924,39 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2019,10 +2976,10 @@
         <v>0.2</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" t="n">
         <v>45</v>
@@ -2053,6 +3010,39 @@
       </c>
       <c r="P8" t="n">
         <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>11</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.333</v>
       </c>
     </row>
     <row r="9">
@@ -2070,16 +3060,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.198</v>
+        <v>0.194</v>
       </c>
       <c r="E9" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G9" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H9" t="n">
         <v>15</v>
@@ -2107,6 +3097,39 @@
       </c>
       <c r="P9" t="n">
         <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>18</v>
+      </c>
+      <c r="U9" t="n">
+        <v>8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
@@ -2162,6 +3185,39 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2216,6 +3272,39 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2268,6 +3357,39 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2282,7 +3404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2451,6 +3573,56 @@
           <t>BK</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Wgs</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Wgr</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>GF</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>SVO</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>GO/AO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2458,7 +3630,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>박세웅</t>
+          <t>뷰캐넌</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2468,20 +3640,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 2/3</t>
+          <t>100 2/3</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2489,76 +3661,104 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K2" t="n">
+        <v>0.545</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.31</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>434</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>1634</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2</v>
+        <v>0.268</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>139</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row r="3">
@@ -2567,7 +3767,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이상민</t>
+          <t>수아레즈</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2577,97 +3777,125 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>85 2/3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.29</v>
+        <v>2.31</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="L3" t="n">
+        <v>73</v>
+      </c>
+      <c r="M3" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
+        <v>25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>29</v>
+      </c>
+      <c r="R3" t="n">
+        <v>22</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>353</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1485</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>3</v>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>145</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>73</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="4">
@@ -2676,7 +3904,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이승민</t>
+          <t>원태인</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2686,20 +3914,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5 1/3</t>
+          <t>81 1/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.69</v>
+        <v>3.43</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2707,34 +3935,32 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K4" t="n">
+        <v>0.444</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -2743,40 +3969,70 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="Y4" t="n">
-        <v>93</v>
+        <v>1297</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.111</v>
+        <v>0.255</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>88</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -2785,7 +4041,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>우규민</t>
+          <t>백정현</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2795,95 +4051,125 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>64 1/3</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.71</v>
+        <v>6.44</v>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
+        <v>23</v>
+      </c>
+      <c r="O5" t="n">
         <v>3</v>
       </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
       <c r="P5" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="n">
+        <v>47</v>
+      </c>
+      <c r="R5" t="n">
+        <v>46</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>296</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1082</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
         <v>7</v>
       </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>93</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>366</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>77</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="6">
@@ -2892,7 +4178,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>수아레즈</t>
+          <t>황동재</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2902,20 +4188,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85 2/3</t>
+          <t>45 2/3</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.31</v>
+        <v>6.9</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2924,73 +4210,103 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.444</v>
+        <v>0.333</v>
       </c>
       <c r="L6" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="M6" t="n">
+        <v>7</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>41</v>
+      </c>
+      <c r="R6" t="n">
+        <v>35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>217</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>929</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
         <v>3</v>
       </c>
-      <c r="N6" t="n">
-        <v>25</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>29</v>
-      </c>
-      <c r="R6" t="n">
-        <v>22</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>9</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>353</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1485</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
+      <c r="AO6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>57</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="7">
@@ -2999,7 +4315,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>오승환</t>
+          <t>허윤동</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3009,95 +4325,125 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32 1/3</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.4</v>
+        <v>5.01</v>
       </c>
       <c r="F7" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>34</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>19</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>21</v>
+      </c>
+      <c r="R7" t="n">
         <v>18</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>32</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="S7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>148</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>565</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
         <v>7</v>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R7" t="n">
-        <v>8</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" t="n">
-        <v>130</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>532</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
+      <c r="AI7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -3106,7 +4452,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>뷰캐넌</t>
+          <t>양창섭</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3116,95 +4462,125 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100 2/3</t>
+          <t>15 1/3</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.86</v>
+        <v>4.7</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
         <v>6</v>
       </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="L8" t="n">
-        <v>106</v>
-      </c>
-      <c r="M8" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" t="n">
-        <v>26</v>
-      </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="Q8" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="R8" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>434</v>
+        <v>64</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634</v>
+        <v>261</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.268</v>
+        <v>0.246</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3213,7 +4589,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>장필준</t>
+          <t>박세웅</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3223,20 +4599,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15 2/3</t>
+          <t>1 2/3</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3244,74 +4620,108 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L9" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>8</v>
       </c>
-      <c r="Q9" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>68</v>
-      </c>
       <c r="Y9" t="n">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.288</v>
+        <v>0.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -3320,7 +4730,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>박정준</t>
+          <t>이재익</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3330,97 +4740,125 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8 1/3</t>
+          <t>19 1/3</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.24</v>
+        <v>7.45</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.75</v>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q10" t="n">
+        <v>19</v>
+      </c>
+      <c r="R10" t="n">
+        <v>16</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>332</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="AA10" t="n">
         <v>3</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>3</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>135</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.226</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
+      <c r="AK10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="11">
@@ -3429,7 +4867,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>김윤수</t>
+          <t>박정준</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3439,53 +4877,55 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19 1/3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.26</v>
+        <v>6.3</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.667</v>
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
         <v>7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>11</v>
       </c>
       <c r="R11" t="n">
         <v>7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -3500,16 +4940,16 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="n">
-        <v>316</v>
+        <v>173</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.243</v>
+        <v>0.256</v>
       </c>
       <c r="AA11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -3518,16 +4958,46 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
@@ -3536,7 +5006,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>허윤동</t>
+          <t>이승현</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3546,95 +5016,125 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.41</v>
+        <v>5.88</v>
       </c>
       <c r="F12" t="n">
+        <v>28</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>6</v>
       </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>19</v>
       </c>
       <c r="Q12" t="n">
+        <v>17</v>
+      </c>
+      <c r="R12" t="n">
+        <v>17</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>486</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO12" t="n">
         <v>14</v>
       </c>
-      <c r="R12" t="n">
-        <v>11</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>126</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>487</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
+      <c r="AP12" t="n">
+        <v>39</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="13">
@@ -3643,7 +5143,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>원태인</t>
+          <t>최하늘</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3653,95 +5153,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>81 1/3</t>
+          <t>4 2/3</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.43</v>
+        <v>5.79</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="n">
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>93</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP13" t="n">
         <v>5</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="L13" t="n">
-        <v>79</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="n">
-        <v>26</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>63</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>33</v>
-      </c>
-      <c r="R13" t="n">
-        <v>31</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>6</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>342</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1297</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
+      <c r="AQ13" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="14">
@@ -3750,7 +5282,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>최충연</t>
+          <t>문용익</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3760,97 +5292,125 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14 2/3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.68</v>
+        <v>5.4</v>
       </c>
       <c r="F14" t="n">
+        <v>17</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>19</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>11</v>
+      </c>
+      <c r="R14" t="n">
+        <v>9</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>283</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO14" t="n">
         <v>14</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>14</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>10</v>
-      </c>
-      <c r="R14" t="n">
-        <v>6</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>68</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>257</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
+      <c r="AP14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="15">
@@ -3859,7 +5419,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>홍정우</t>
+          <t>임대한</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3869,17 +5429,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14 1/3</t>
+          <t>13 2/3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.4</v>
+        <v>5.27</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -3888,34 +5448,34 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8</v>
+        <v>0.667</v>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q15" t="n">
+        <v>11</v>
+      </c>
+      <c r="R15" t="n">
         <v>8</v>
       </c>
-      <c r="R15" t="n">
-        <v>7</v>
-      </c>
       <c r="S15" t="n">
-        <v>1.26</v>
+        <v>1.54</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -3927,37 +5487,67 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y15" t="n">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.184</v>
+        <v>0.24</v>
       </c>
       <c r="AA15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -4068,6 +5658,36 @@
       <c r="AG16" t="n">
         <v>0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -4175,6 +5795,36 @@
       <c r="AG17" t="n">
         <v>0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -4182,7 +5832,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>양창섭</t>
+          <t>이상민</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4192,95 +5842,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15 1/3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.7</v>
+        <v>1.29</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.667</v>
+        <v>3</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L18" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>145</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>6</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="AP18" t="n">
         <v>9</v>
       </c>
-      <c r="Q18" t="n">
-        <v>8</v>
-      </c>
-      <c r="R18" t="n">
-        <v>8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>64</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>261</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
+      <c r="AQ18" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="19">
@@ -4289,7 +5971,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>임대한</t>
+          <t>홍정우</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4299,17 +5981,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13 2/3</t>
+          <t>14 1/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.27</v>
+        <v>4.4</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -4318,34 +6000,34 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="L19" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
         <v>8</v>
       </c>
-      <c r="Q19" t="n">
-        <v>11</v>
-      </c>
       <c r="R19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S19" t="n">
-        <v>1.54</v>
+        <v>1.26</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -4357,37 +6039,67 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y19" t="n">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.24</v>
+        <v>0.184</v>
       </c>
       <c r="AA19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="20">
@@ -4396,7 +6108,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>문용익</t>
+          <t>김윤수</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4406,17 +6118,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.4</v>
+        <v>4.05</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -4425,34 +6137,34 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="L20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Q20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R20" t="n">
         <v>9</v>
       </c>
       <c r="S20" t="n">
-        <v>1.87</v>
+        <v>1.35</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -4467,16 +6179,16 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Y20" t="n">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.322</v>
+        <v>0.237</v>
       </c>
       <c r="AA20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -4485,16 +6197,46 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="21">
@@ -4503,7 +6245,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>이승현</t>
+          <t>최충연</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4513,53 +6255,55 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>15 2/3</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.88</v>
+        <v>3.45</v>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>14</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" t="n">
         <v>6</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>31</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="n">
-        <v>15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>17</v>
-      </c>
-      <c r="R21" t="n">
-        <v>17</v>
-      </c>
       <c r="S21" t="n">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -4574,34 +6318,64 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="Y21" t="n">
-        <v>486</v>
+        <v>276</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.307</v>
+        <v>0.233</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="22">
@@ -4610,7 +6384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>이재익</t>
+          <t>장필준</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4620,50 +6394,50 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>18 1/3</t>
+          <t>15 2/3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.89</v>
+        <v>2.87</v>
       </c>
       <c r="F22" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>6</v>
+      </c>
+      <c r="R22" t="n">
         <v>5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>15</v>
-      </c>
-      <c r="R22" t="n">
-        <v>12</v>
       </c>
       <c r="S22" t="n">
         <v>1.53</v>
@@ -4681,34 +6455,64 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="Y22" t="n">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.303</v>
+        <v>0.288</v>
       </c>
       <c r="AA22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="23">
@@ -4717,7 +6521,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>최하늘</t>
+          <t>오승환</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4727,55 +6531,53 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4 1/3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.23</v>
+        <v>2.4</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S23" t="n">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -4787,25 +6589,25 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="Y23" t="n">
-        <v>88</v>
+        <v>532</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.235</v>
+        <v>0.264</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -4814,10 +6616,40 @@
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="24">
@@ -4826,7 +6658,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>백정현</t>
+          <t>우규민</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4836,95 +6668,125 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>64 1/3</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6.44</v>
+        <v>1.71</v>
       </c>
       <c r="F24" t="n">
+        <v>28</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>24</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>93</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>366</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL24" t="n">
         <v>12</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>83</v>
-      </c>
-      <c r="M24" t="n">
-        <v>16</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP24" t="n">
         <v>23</v>
       </c>
-      <c r="O24" t="n">
-        <v>3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>47</v>
-      </c>
-      <c r="R24" t="n">
-        <v>46</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>4</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>296</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1082</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.312</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
+      <c r="AQ24" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="25">
@@ -4933,7 +6795,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>황동재</t>
+          <t>이승민</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4943,20 +6805,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45 2/3</t>
+          <t>5 1/3</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.9</v>
+        <v>1.69</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -4964,32 +6826,34 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.333</v>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L25" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>1.86</v>
+        <v>1.31</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -4998,31 +6862,31 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="Y25" t="n">
-        <v>929</v>
+        <v>93</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.33</v>
+        <v>0.111</v>
       </c>
       <c r="AA25" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -5031,7 +6895,37 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="26">
@@ -5139,6 +7033,36 @@
       </c>
       <c r="AG26" t="n">
         <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/삼성_기록.xlsx
+++ b/삼성_기록.xlsx
@@ -583,25 +583,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -631,25 +631,25 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.444</v>
+        <v>0.456</v>
       </c>
       <c r="W2" t="n">
-        <v>0.403</v>
+        <v>0.409</v>
       </c>
       <c r="X2" t="n">
-        <v>0.847</v>
+        <v>0.865</v>
       </c>
       <c r="Y2" t="n">
         <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.375</v>
+        <v>0.412</v>
       </c>
       <c r="AA2" t="n">
         <v>0.143</v>
@@ -670,22 +670,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.336</v>
+        <v>0.333</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G3" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
         <v>8</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O3" t="n">
         <v>3</v>
@@ -715,28 +715,28 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U3" t="n">
         <v>8</v>
       </c>
       <c r="V3" t="n">
-        <v>0.398</v>
+        <v>0.417</v>
       </c>
       <c r="W3" t="n">
         <v>0.39</v>
       </c>
       <c r="X3" t="n">
-        <v>0.788</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="Y3" t="n">
         <v>7</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.303</v>
+        <v>0.294</v>
       </c>
       <c r="AA3" t="n">
         <v>0.667</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이해승</t>
+          <t>김지찬</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -995,46 +995,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.282</v>
+        <v>0.28</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F2" t="n">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="G2" t="n">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="H2" t="n">
+        <v>36</v>
+      </c>
+      <c r="I2" t="n">
+        <v>56</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>70</v>
+      </c>
+      <c r="N2" t="n">
+        <v>17</v>
+      </c>
+      <c r="O2" t="n">
         <v>9</v>
       </c>
-      <c r="I2" t="n">
-        <v>22</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>25</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5</v>
-      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1043,22 +1043,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.321</v>
+        <v>0.35</v>
       </c>
       <c r="W2" t="n">
-        <v>0.282</v>
+        <v>0.357</v>
       </c>
       <c r="X2" t="n">
-        <v>0.603</v>
+        <v>0.707</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
         <v>0.333</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>김지찬</t>
+          <t>이해승</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1082,73 +1082,73 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>0.272</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="G3" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="H3" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>25</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>23</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="Y3" t="n">
         <v>6</v>
       </c>
-      <c r="K3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>70</v>
-      </c>
-      <c r="N3" t="n">
-        <v>17</v>
-      </c>
-      <c r="O3" t="n">
-        <v>9</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>24</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>31</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.707</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>14</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0.333</v>
+        <v>0.318</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1169,22 +1169,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.272</v>
+        <v>0.271</v>
       </c>
       <c r="E4" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G4" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H4" t="n">
         <v>28</v>
       </c>
       <c r="I4" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J4" t="n">
         <v>17</v>
@@ -1196,7 +1196,7 @@
         <v>12</v>
       </c>
       <c r="M4" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N4" t="n">
         <v>44</v>
@@ -1217,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.484</v>
+        <v>0.478</v>
       </c>
       <c r="W4" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="X4" t="n">
-        <v>0.838</v>
+        <v>0.83</v>
       </c>
       <c r="Y4" t="n">
         <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.284</v>
+        <v>0.28</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1256,19 +1256,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.265</v>
+        <v>0.258</v>
       </c>
       <c r="E5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G5" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="n">
         <v>40</v>
@@ -1304,25 +1304,25 @@
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>0.351</v>
+        <v>0.342</v>
       </c>
       <c r="W5" t="n">
-        <v>0.321</v>
+        <v>0.314</v>
       </c>
       <c r="X5" t="n">
-        <v>0.672</v>
+        <v>0.656</v>
       </c>
       <c r="Y5" t="n">
         <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.316</v>
+        <v>0.3</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1517,16 +1517,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.232</v>
+        <v>0.227</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G8" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H8" t="n">
         <v>15</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1571,13 +1571,13 @@
         <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>0.312</v>
+        <v>0.305</v>
       </c>
       <c r="W8" t="n">
         <v>0.243</v>
       </c>
       <c r="X8" t="n">
-        <v>0.555</v>
+        <v>0.548</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2</v>
+        <v>0.197</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
@@ -1832,13 +1832,13 @@
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>0.333</v>
+        <v>0.329</v>
       </c>
       <c r="W11" t="n">
-        <v>0.294</v>
+        <v>0.291</v>
       </c>
       <c r="X11" t="n">
-        <v>0.627</v>
+        <v>0.62</v>
       </c>
       <c r="Y11" t="n">
         <v>3</v>
@@ -1847,7 +1847,7 @@
         <v>0.2</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.286</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="12">
@@ -2126,19 +2126,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1</v>
+        <v>0.091</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -2180,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1</v>
+        <v>0.091</v>
       </c>
       <c r="W15" t="n">
-        <v>0.182</v>
+        <v>0.167</v>
       </c>
       <c r="X15" t="n">
-        <v>0.282</v>
+        <v>0.258</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -2451,22 +2451,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.332</v>
+        <v>0.331</v>
       </c>
       <c r="E2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G2" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J2" t="n">
         <v>14</v>
@@ -2478,10 +2478,10 @@
         <v>12</v>
       </c>
       <c r="M2" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2" t="n">
         <v>8</v>
@@ -2499,25 +2499,25 @@
         <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>0.532</v>
+        <v>0.528</v>
       </c>
       <c r="W2" t="n">
         <v>0.412</v>
       </c>
       <c r="X2" t="n">
-        <v>0.944</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y2" t="n">
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.345</v>
+        <v>0.353</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -2538,22 +2538,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.306</v>
+        <v>0.317</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G3" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
         <v>9</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N3" t="n">
         <v>10</v>
@@ -2586,22 +2586,22 @@
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.388</v>
+        <v>0.396</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4</v>
+        <v>0.406</v>
       </c>
       <c r="X3" t="n">
-        <v>0.788</v>
+        <v>0.802</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>0.304</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>박승규</t>
+          <t>김헌곤</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2973,25 +2973,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2</v>
+        <v>0.201</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F8" t="n">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="G8" t="n">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -3000,49 +3000,49 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>43</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>19</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="Y8" t="n">
         <v>10</v>
       </c>
-      <c r="N8" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>11</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2</v>
-      </c>
       <c r="Z8" t="n">
-        <v>0.182</v>
+        <v>0.179</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>김헌곤</t>
+          <t>박승규</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3060,25 +3060,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="E9" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="G9" t="n">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -3087,49 +3087,49 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.228</v>
+        <v>0.222</v>
       </c>
       <c r="W9" t="n">
-        <v>0.229</v>
+        <v>0.217</v>
       </c>
       <c r="X9" t="n">
-        <v>0.457</v>
+        <v>0.439</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.179</v>
+        <v>0.182</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.25</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="10">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>뷰캐넌</t>
+          <t>수아레즈</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3640,17 +3640,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100 2/3</t>
+          <t>90 2/3</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.86</v>
+        <v>2.48</v>
       </c>
       <c r="F2" t="n">
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -3662,64 +3662,64 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.545</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R2" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="Y2" t="n">
-        <v>1634</v>
+        <v>1600</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.268</v>
+        <v>0.226</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -3734,13 +3734,13 @@
         <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -3749,16 +3749,16 @@
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="AP2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.99</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>수아레즈</t>
+          <t>뷰캐넌</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3777,17 +3777,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85 2/3</t>
+          <t>100 2/3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.31</v>
+        <v>2.86</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -3799,64 +3799,64 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.444</v>
+        <v>0.545</v>
       </c>
       <c r="L3" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="R3" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="S3" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>353</v>
+        <v>434</v>
       </c>
       <c r="Y3" t="n">
-        <v>1485</v>
+        <v>1634</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.227</v>
+        <v>0.268</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -3868,16 +3868,16 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -3886,16 +3886,16 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AP3" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.37</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="4">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이재익</t>
+          <t>임대한</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4740,17 +4740,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19 1/3</t>
+          <t>13 2/3</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7.45</v>
+        <v>5.27</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -4762,70 +4762,70 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.75</v>
+        <v>0.667</v>
       </c>
       <c r="L10" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>242</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA10" t="n">
         <v>5</v>
       </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>19</v>
-      </c>
-      <c r="R10" t="n">
-        <v>16</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>92</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>332</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>3</v>
-      </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -4837,28 +4837,28 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO10" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>박정준</t>
+          <t>이재익</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4877,37 +4877,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19 1/3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6.3</v>
+        <v>7.45</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.75</v>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
         <v>5</v>
@@ -4916,16 +4914,16 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q11" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="R11" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -4940,25 +4938,25 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="Y11" t="n">
-        <v>173</v>
+        <v>332</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.256</v>
+        <v>0.325</v>
       </c>
       <c r="AA11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -4976,28 +4974,28 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="12">
@@ -5006,7 +5004,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>이승현</t>
+          <t>박정준</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5016,125 +5014,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.88</v>
+        <v>6.3</v>
       </c>
       <c r="F12" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L12" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
         <v>4</v>
       </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>173</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>15</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>17</v>
-      </c>
-      <c r="R12" t="n">
-        <v>17</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>121</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>486</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.307</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>14</v>
-      </c>
       <c r="AP12" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.36</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>최하늘</t>
+          <t>이승현</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5153,127 +5153,125 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4 2/3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.79</v>
+        <v>5.88</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
       </c>
       <c r="L13" t="n">
+        <v>31</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>17</v>
+      </c>
+      <c r="R13" t="n">
+        <v>17</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>121</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>486</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL13" t="n">
         <v>5</v>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AP13" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="14">
@@ -5282,7 +5280,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>문용익</t>
+          <t>최하늘</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5292,20 +5290,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4 2/3</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.4</v>
+        <v>5.79</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5313,32 +5311,34 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.5</v>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L14" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -5353,31 +5353,31 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.322</v>
+        <v>0.263</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -5389,10 +5389,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -5401,16 +5401,16 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.74</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="15">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>임대한</t>
+          <t>김윤수</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5429,53 +5429,53 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13 2/3</t>
+          <t>20 1/3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.27</v>
+        <v>5.75</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="L15" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Q15" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S15" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -5487,16 +5487,16 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="Y15" t="n">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.24</v>
+        <v>0.253</v>
       </c>
       <c r="AA15" t="n">
         <v>5</v>
@@ -5505,16 +5505,16 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -5529,25 +5529,25 @@
         <v>2</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="16">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>노성호</t>
+          <t>문용익</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5566,20 +5566,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16 1/3</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.5</v>
+        <v>5.51</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -5587,34 +5587,32 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K16" t="n">
+        <v>0.5</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -5629,16 +5627,16 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="n">
-        <v>46</v>
+        <v>314</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.25</v>
+        <v>0.313</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -5647,13 +5645,13 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -5665,10 +5663,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
@@ -5677,16 +5675,16 @@
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO16" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.33</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="17">
@@ -5705,14 +5703,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27 1/3</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.61</v>
+        <v>4.5</v>
       </c>
       <c r="F17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -5724,25 +5722,25 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K17" t="n">
         <v>0.2</v>
       </c>
       <c r="L17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q17" t="n">
         <v>16</v>
@@ -5751,7 +5749,7 @@
         <v>14</v>
       </c>
       <c r="S17" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -5766,13 +5764,13 @@
         <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Y17" t="n">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.231</v>
+        <v>0.241</v>
       </c>
       <c r="AA17" t="n">
         <v>3</v>
@@ -5817,13 +5815,13 @@
         <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP17" t="n">
         <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="18">
@@ -5971,7 +5969,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>홍정우</t>
+          <t>노성호</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5981,20 +5979,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14 1/3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -6002,32 +6000,34 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.8</v>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.26</v>
+        <v>2.5</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -6039,31 +6039,31 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.184</v>
+        <v>0.25</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -6078,28 +6078,28 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="20">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>김윤수</t>
+          <t>홍정우</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6118,17 +6118,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14 1/3</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -6137,106 +6137,106 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="L20" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
         <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q20" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R20" t="n">
+        <v>7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>226</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="n">
         <v>9</v>
       </c>
-      <c r="S20" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>89</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>337</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17</v>
-      </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.68</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="21">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>최충연</t>
+          <t>장필준</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6255,20 +6255,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15 2/3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.45</v>
+        <v>3.94</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -6276,34 +6276,32 @@
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
         <v>8</v>
       </c>
-      <c r="O21" t="n">
-        <v>3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>9</v>
-      </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S21" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -6318,31 +6316,31 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="n">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.233</v>
+        <v>0.306</v>
       </c>
       <c r="AA21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -6357,25 +6355,25 @@
         <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.52</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="22">
@@ -6384,7 +6382,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>장필준</t>
+          <t>최충연</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6398,16 +6396,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.87</v>
+        <v>3.45</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -6415,32 +6413,34 @@
       <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q22" t="n">
+        <v>10</v>
+      </c>
+      <c r="R22" t="n">
         <v>6</v>
       </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
       <c r="S22" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -6455,31 +6455,31 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Y22" t="n">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.288</v>
+        <v>0.233</v>
       </c>
       <c r="AA22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -6494,25 +6494,25 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AL22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO22" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.83</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="23">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>우규민</t>
+          <t>이승민</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6668,53 +6668,55 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5 1/3</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L24" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -6726,19 +6728,19 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y24" t="n">
         <v>93</v>
       </c>
-      <c r="Y24" t="n">
-        <v>366</v>
-      </c>
       <c r="Z24" t="n">
-        <v>0.273</v>
+        <v>0.111</v>
       </c>
       <c r="AA24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -6750,13 +6752,13 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
@@ -6768,25 +6770,25 @@
         <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="25">
@@ -6795,7 +6797,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>이승민</t>
+          <t>우규민</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6805,55 +6807,53 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5 1/3</t>
+          <t>21 1/3</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>1.69</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -6865,67 +6865,67 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>369</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP25" t="n">
         <v>23</v>
       </c>
-      <c r="Y25" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>11</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>0.27</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="26">

--- a/삼성_기록.xlsx
+++ b/삼성_기록.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>김재성</t>
+          <t>박상언</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -583,22 +583,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.351</v>
+        <v>0.271</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -607,22 +607,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.456</v>
+        <v>0.424</v>
       </c>
       <c r="W2" t="n">
-        <v>0.409</v>
+        <v>0.317</v>
       </c>
       <c r="X2" t="n">
-        <v>0.865</v>
+        <v>0.741</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.412</v>
+        <v>0.385</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.143</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -661,7 +661,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>김태군</t>
+          <t>허인서</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -670,76 +670,76 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="E3" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.417</v>
+        <v>0.222</v>
       </c>
       <c r="W3" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.522</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.294</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -748,84 +748,519 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>최재훈</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E4" t="n">
+        <v>65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>256</v>
+      </c>
+      <c r="G4" t="n">
+        <v>215</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>55</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="n">
+        <v>40</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>백용환</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>이해창</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>김재성</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>71</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>26</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>15</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>김태군</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>54</v>
+      </c>
+      <c r="F8" t="n">
+        <v>149</v>
+      </c>
+      <c r="G8" t="n">
+        <v>132</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>55</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>20</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>강민호</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>포수</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="E4" t="n">
-        <v>64</v>
-      </c>
-      <c r="F4" t="n">
-        <v>227</v>
-      </c>
-      <c r="G4" t="n">
-        <v>204</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="D9" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="E9" t="n">
+        <v>65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>231</v>
+      </c>
+      <c r="G9" t="n">
+        <v>208</v>
+      </c>
+      <c r="H9" t="n">
         <v>14</v>
       </c>
-      <c r="I4" t="n">
-        <v>46</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I9" t="n">
+        <v>47</v>
+      </c>
+      <c r="J9" t="n">
         <v>8</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>62</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>63</v>
+      </c>
+      <c r="N9" t="n">
         <v>28</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
         <v>18</v>
       </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
         <v>30</v>
       </c>
-      <c r="U4" t="n">
-        <v>12</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.291</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="U9" t="n">
+        <v>13</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6</v>
       </c>
-      <c r="Z4" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="Z9" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0.333</v>
       </c>
     </row>
@@ -840,7 +1275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,7 +1421,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>김지찬</t>
+          <t>노시환</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -995,76 +1430,76 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.296</v>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G2" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H2" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V2" t="n">
-        <v>0.35</v>
+        <v>0.408</v>
       </c>
       <c r="W2" t="n">
-        <v>0.357</v>
+        <v>0.396</v>
       </c>
       <c r="X2" t="n">
-        <v>0.707</v>
+        <v>0.804</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.333</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1073,7 +1508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이해승</t>
+          <t>정은원</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1082,46 +1517,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.272</v>
+        <v>0.283</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>86</v>
+        <v>323</v>
       </c>
       <c r="G3" t="n">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1130,25 +1565,25 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>60</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="Y3" t="n">
         <v>23</v>
       </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.581</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>6</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0.318</v>
+        <v>0.297</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1160,7 +1595,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>오재일</t>
+          <t>김인환</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1169,76 +1604,76 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.271</v>
+        <v>0.27</v>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="G4" t="n">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="H4" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="N4" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.478</v>
+        <v>0.438</v>
       </c>
       <c r="W4" t="n">
-        <v>0.352</v>
+        <v>0.311</v>
       </c>
       <c r="X4" t="n">
-        <v>0.83</v>
+        <v>0.749</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.28</v>
+        <v>0.265</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -1247,7 +1682,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>오선진</t>
+          <t>변우혁</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1256,25 +1691,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.258</v>
+        <v>0.245</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="G5" t="n">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1283,49 +1718,49 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>0.342</v>
+        <v>0.469</v>
       </c>
       <c r="W5" t="n">
-        <v>0.314</v>
+        <v>0.245</v>
       </c>
       <c r="X5" t="n">
-        <v>0.656</v>
+        <v>0.714</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3</v>
+        <v>0.167</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -1334,7 +1769,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>김동진</t>
+          <t>박정현</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1343,47 +1778,47 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0.241</v>
       </c>
       <c r="E6" t="n">
+        <v>49</v>
+      </c>
+      <c r="F6" t="n">
+        <v>151</v>
+      </c>
+      <c r="G6" t="n">
+        <v>145</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>35</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>47</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
@@ -1391,28 +1826,28 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5</v>
+        <v>0.324</v>
       </c>
       <c r="W6" t="n">
-        <v>0.25</v>
+        <v>0.267</v>
       </c>
       <c r="X6" t="n">
-        <v>0.75</v>
+        <v>0.591</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="7">
@@ -1421,7 +1856,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>강한울</t>
+          <t>하주석</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1430,76 +1865,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.241</v>
+        <v>0.218</v>
       </c>
       <c r="E7" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F7" t="n">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="G7" t="n">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>0.289</v>
+        <v>0.296</v>
       </c>
       <c r="W7" t="n">
-        <v>0.289</v>
+        <v>0.279</v>
       </c>
       <c r="X7" t="n">
-        <v>0.578</v>
+        <v>0.575</v>
       </c>
       <c r="Y7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.167</v>
+        <v>0.258</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -1508,7 +1943,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>이재현</t>
+          <t>이성곤</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1517,76 +1952,76 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.227</v>
+        <v>0.206</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.305</v>
+        <v>0.25</v>
       </c>
       <c r="W8" t="n">
-        <v>0.243</v>
+        <v>0.325</v>
       </c>
       <c r="X8" t="n">
-        <v>0.548</v>
+        <v>0.575</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.171</v>
+        <v>0.125</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -1595,7 +2030,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>이원석</t>
+          <t>이도윤</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1604,76 +2039,76 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.222</v>
+        <v>0.165</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F9" t="n">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
+        <v>14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
         <v>22</v>
       </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>4</v>
       </c>
-      <c r="M9" t="n">
-        <v>37</v>
-      </c>
-      <c r="N9" t="n">
-        <v>18</v>
-      </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.374</v>
+        <v>0.259</v>
       </c>
       <c r="W9" t="n">
-        <v>0.293</v>
+        <v>0.217</v>
       </c>
       <c r="X9" t="n">
-        <v>0.667</v>
+        <v>0.476</v>
       </c>
       <c r="Y9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.222</v>
+        <v>0.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="10">
@@ -1682,7 +2117,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이태훈</t>
+          <t>정민규</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1691,19 +2126,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -1730,46 +2165,46 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="W10" t="n">
-        <v>0.25</v>
+        <v>0.167</v>
       </c>
       <c r="X10" t="n">
-        <v>0.45</v>
+        <v>0.297</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>최영진</t>
+          <t>김지찬</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1778,85 +2213,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.197</v>
+        <v>0.28</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F11" t="n">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="G11" t="n">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
         <v>4</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.329</v>
+        <v>0.35</v>
       </c>
       <c r="W11" t="n">
-        <v>0.291</v>
+        <v>0.357</v>
       </c>
       <c r="X11" t="n">
-        <v>0.62</v>
+        <v>0.707</v>
       </c>
       <c r="Y11" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2</v>
+        <v>0.333</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>공민규</t>
+          <t>오재일</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1865,73 +2300,73 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.167</v>
+        <v>0.271</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>297</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>0.167</v>
+        <v>0.477</v>
       </c>
       <c r="W12" t="n">
-        <v>0.167</v>
+        <v>0.354</v>
       </c>
       <c r="X12" t="n">
-        <v>0.334</v>
+        <v>0.831</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.333</v>
+        <v>0.289</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1939,11 +2374,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>김상수</t>
+          <t>이해승</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1952,22 +2387,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.164</v>
+        <v>0.265</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F13" t="n">
+        <v>88</v>
+      </c>
+      <c r="G13" t="n">
         <v>83</v>
       </c>
-      <c r="G13" t="n">
-        <v>73</v>
-      </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
@@ -1976,22 +2411,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2000,22 +2435,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0.247</v>
+        <v>0.301</v>
       </c>
       <c r="W13" t="n">
         <v>0.265</v>
       </c>
       <c r="X13" t="n">
-        <v>0.512</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z13" t="n">
         <v>0.318</v>
@@ -2026,11 +2461,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>김호재</t>
+          <t>오선진</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2039,73 +2474,73 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.16</v>
+        <v>0.258</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I14" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
-        <v>0.2</v>
+        <v>0.342</v>
       </c>
       <c r="W14" t="n">
-        <v>0.192</v>
+        <v>0.314</v>
       </c>
       <c r="X14" t="n">
-        <v>0.392</v>
+        <v>0.656</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.167</v>
+        <v>0.3</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2113,11 +2548,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>안주형</t>
+          <t>김동진</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2126,25 +2561,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.091</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2153,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2180,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.091</v>
+        <v>0.5</v>
       </c>
       <c r="W15" t="n">
-        <v>0.167</v>
+        <v>0.25</v>
       </c>
       <c r="X15" t="n">
-        <v>0.258</v>
+        <v>0.75</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -2200,11 +2635,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>이성규</t>
+          <t>강한울</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2213,26 +2648,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.053</v>
+        <v>0.241</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="G16" t="n">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="H16" t="n">
+        <v>12</v>
+      </c>
+      <c r="I16" t="n">
+        <v>20</v>
+      </c>
+      <c r="J16" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -2240,48 +2675,831 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>0.053</v>
+        <v>0.289</v>
       </c>
       <c r="W16" t="n">
-        <v>0.28</v>
+        <v>0.289</v>
       </c>
       <c r="X16" t="n">
-        <v>0.333</v>
+        <v>0.578</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z16" t="n">
         <v>0.167</v>
       </c>
       <c r="AA16" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>이원석</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E17" t="n">
+        <v>29</v>
+      </c>
+      <c r="F17" t="n">
+        <v>119</v>
+      </c>
+      <c r="G17" t="n">
+        <v>99</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>37</v>
+      </c>
+      <c r="N17" t="n">
+        <v>18</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>12</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>29</v>
+      </c>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>이재현</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E18" t="n">
+        <v>46</v>
+      </c>
+      <c r="F18" t="n">
+        <v>149</v>
+      </c>
+      <c r="G18" t="n">
+        <v>144</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>32</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>43</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>28</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>이태훈</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>최영진</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E20" t="n">
+        <v>42</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90</v>
+      </c>
+      <c r="G20" t="n">
+        <v>79</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>25</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>19</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>공민규</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>안주형</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>김상수</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="n">
+        <v>83</v>
+      </c>
+      <c r="G23" t="n">
+        <v>73</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>18</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>16</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>김호재</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E24" t="n">
+        <v>19</v>
+      </c>
+      <c r="F24" t="n">
+        <v>26</v>
+      </c>
+      <c r="G24" t="n">
+        <v>25</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>7</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>이성규</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9</v>
+      </c>
+      <c r="F25" t="n">
+        <v>26</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>6</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AA25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2296,7 +3514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,7 +3660,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>피렐라</t>
+          <t>장운호</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2451,73 +3669,73 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.331</v>
+        <v>0.3</v>
       </c>
       <c r="E2" t="n">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>323</v>
+        <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>284</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>14</v>
       </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12</v>
-      </c>
-      <c r="M2" t="n">
-        <v>150</v>
-      </c>
       <c r="N2" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>8</v>
       </c>
-      <c r="S2" t="n">
-        <v>7</v>
-      </c>
-      <c r="T2" t="n">
-        <v>34</v>
-      </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.528</v>
+        <v>0.467</v>
       </c>
       <c r="W2" t="n">
-        <v>0.412</v>
+        <v>0.353</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.353</v>
+        <v>0.273</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -2529,7 +3747,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>김현준</t>
+          <t>터크먼</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2538,76 +3756,76 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.317</v>
+        <v>0.29</v>
       </c>
       <c r="E3" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F3" t="n">
-        <v>164</v>
+        <v>343</v>
       </c>
       <c r="G3" t="n">
-        <v>139</v>
+        <v>310</v>
       </c>
       <c r="H3" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>0.396</v>
+        <v>0.403</v>
       </c>
       <c r="W3" t="n">
-        <v>0.406</v>
+        <v>0.353</v>
       </c>
       <c r="X3" t="n">
-        <v>0.802</v>
+        <v>0.756</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.304</v>
+        <v>0.189</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2616,7 +3834,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>구자욱</t>
+          <t>유로결</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2625,73 +3843,73 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.286</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.381</v>
+        <v>0.286</v>
       </c>
       <c r="W4" t="n">
-        <v>0.32</v>
+        <v>0.286</v>
       </c>
       <c r="X4" t="n">
-        <v>0.701</v>
+        <v>0.572</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.304</v>
+        <v>0.2</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -2703,7 +3921,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>김동엽</t>
+          <t>권광민</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2712,37 +3930,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.244</v>
+        <v>0.233</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2751,37 +3969,37 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.372</v>
+        <v>0.317</v>
       </c>
       <c r="W5" t="n">
-        <v>0.267</v>
+        <v>0.373</v>
       </c>
       <c r="X5" t="n">
-        <v>0.639</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.143</v>
+        <v>0.286</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2790,7 +4008,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>김재혁</t>
+          <t>노수광</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2799,76 +4017,76 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.242</v>
+        <v>0.232</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F6" t="n">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J6" t="n">
         <v>8</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0.273</v>
+        <v>0.376</v>
       </c>
       <c r="W6" t="n">
-        <v>0.333</v>
+        <v>0.303</v>
       </c>
       <c r="X6" t="n">
-        <v>0.606</v>
+        <v>0.679</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -2877,7 +4095,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>김성윤</t>
+          <t>이진영</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2886,76 +4104,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.217</v>
+        <v>0.218</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F7" t="n">
+        <v>187</v>
+      </c>
+      <c r="G7" t="n">
+        <v>170</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>37</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>69</v>
+      </c>
+      <c r="N7" t="n">
         <v>28</v>
       </c>
-      <c r="G7" t="n">
-        <v>23</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>0.304</v>
+        <v>0.406</v>
       </c>
       <c r="W7" t="n">
-        <v>0.357</v>
+        <v>0.273</v>
       </c>
       <c r="X7" t="n">
-        <v>0.661</v>
+        <v>0.679</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.25</v>
+        <v>0.268</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="8">
@@ -2964,7 +4182,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>김헌곤</t>
+          <t>김태연</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2973,76 +4191,76 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.201</v>
+        <v>0.214</v>
       </c>
       <c r="E8" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F8" t="n">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="G8" t="n">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="U8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V8" t="n">
-        <v>0.234</v>
+        <v>0.291</v>
       </c>
       <c r="W8" t="n">
-        <v>0.235</v>
+        <v>0.281</v>
       </c>
       <c r="X8" t="n">
-        <v>0.469</v>
+        <v>0.572</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.179</v>
+        <v>0.226</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3051,7 +4269,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>박승규</t>
+          <t>임종찬</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3060,22 +4278,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.2</v>
+        <v>0.189</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -3084,52 +4302,52 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="n">
         <v>0.222</v>
       </c>
-      <c r="W9" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.182</v>
-      </c>
       <c r="AA9" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3138,7 +4356,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>송준석</t>
+          <t>이원석</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3147,22 +4365,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.154</v>
+        <v>0.13</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -3171,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -3186,34 +4404,34 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>0.154</v>
+        <v>0.261</v>
       </c>
       <c r="W10" t="n">
-        <v>0.214</v>
+        <v>0.2</v>
       </c>
       <c r="X10" t="n">
-        <v>0.368</v>
+        <v>0.461</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -3225,7 +4443,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>김성표</t>
+          <t>원혁재</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3234,25 +4452,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.143</v>
+        <v>0.095</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -3261,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -3273,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -3282,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -3291,16 +4509,16 @@
         <v>0.143</v>
       </c>
       <c r="W11" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
         <v>0.2</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -3308,88 +4526,958 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>피렐라</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>327</v>
+      </c>
+      <c r="G12" t="n">
+        <v>288</v>
+      </c>
+      <c r="H12" t="n">
+        <v>48</v>
+      </c>
+      <c r="I12" t="n">
+        <v>95</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>151</v>
+      </c>
+      <c r="N12" t="n">
+        <v>49</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>32</v>
+      </c>
+      <c r="R12" t="n">
+        <v>8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>34</v>
+      </c>
+      <c r="U12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="V12" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>김현준</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="E13" t="n">
+        <v>59</v>
+      </c>
+      <c r="F13" t="n">
+        <v>168</v>
+      </c>
+      <c r="G13" t="n">
+        <v>142</v>
+      </c>
+      <c r="H13" t="n">
+        <v>25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>45</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>56</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>19</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>29</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>구자욱</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F14" t="n">
+        <v>179</v>
+      </c>
+      <c r="G14" t="n">
+        <v>168</v>
+      </c>
+      <c r="H14" t="n">
+        <v>22</v>
+      </c>
+      <c r="I14" t="n">
+        <v>47</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>64</v>
+      </c>
+      <c r="N14" t="n">
+        <v>19</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>39</v>
+      </c>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>김동엽</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>90</v>
+      </c>
+      <c r="G15" t="n">
+        <v>86</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>32</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>20</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>김재혁</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>39</v>
+      </c>
+      <c r="G16" t="n">
+        <v>33</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>9</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>김성윤</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>28</v>
+      </c>
+      <c r="G17" t="n">
+        <v>23</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>김헌곤</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="E18" t="n">
+        <v>64</v>
+      </c>
+      <c r="F18" t="n">
+        <v>201</v>
+      </c>
+      <c r="G18" t="n">
+        <v>187</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>43</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>20</v>
+      </c>
+      <c r="U18" t="n">
+        <v>8</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>박승규</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="E19" t="n">
+        <v>37</v>
+      </c>
+      <c r="F19" t="n">
+        <v>50</v>
+      </c>
+      <c r="G19" t="n">
+        <v>46</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>10</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>11</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>송준석</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>28</v>
+      </c>
+      <c r="G20" t="n">
+        <v>26</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>김성표</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>윤정빈</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>외야수</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,20 +6139,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>64 1/3</t>
+          <t>69 1/3</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.44</v>
+        <v>6.23</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -4076,28 +6164,28 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R5" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S5" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -4112,13 +6200,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="Y5" t="n">
-        <v>1082</v>
+        <v>1165</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.312</v>
+        <v>0.305</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -4133,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
         <v>7</v>
@@ -4142,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -4163,13 +6251,13 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AP5" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
@@ -5004,7 +7092,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>박정준</t>
+          <t>최하늘</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5014,14 +7102,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5 2/3</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5041,28 +7129,28 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="Q12" t="n">
-        <v>7</v>
-      </c>
       <c r="R12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -5077,19 +7165,19 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.256</v>
+        <v>0.261</v>
       </c>
       <c r="AA12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -5128,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.5</v>
@@ -5143,7 +7231,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>이승현</t>
+          <t>박정준</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5153,125 +7241,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.88</v>
+        <v>6.3</v>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L13" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="n">
+      <c r="Q13" t="n">
+        <v>7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>173</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
         <v>15</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>17</v>
-      </c>
-      <c r="R13" t="n">
-        <v>17</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>121</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>486</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.307</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>14</v>
-      </c>
       <c r="AP13" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.36</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14">
@@ -5280,7 +7370,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>최하늘</t>
+          <t>이승현</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5290,127 +7380,125 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4 2/3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.79</v>
+        <v>5.88</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>31</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>17</v>
+      </c>
+      <c r="R14" t="n">
+        <v>17</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>121</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>486</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL14" t="n">
         <v>5</v>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="15">
@@ -5693,7 +7781,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>이승현</t>
+          <t>노성호</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5703,92 +7791,94 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>4.5</v>
       </c>
       <c r="F17" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>11</v>
       </c>
-      <c r="K17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>26</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="n">
-        <v>13</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>16</v>
-      </c>
-      <c r="R17" t="n">
-        <v>14</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>125</v>
-      </c>
       <c r="Y17" t="n">
-        <v>481</v>
+        <v>46</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.241</v>
+        <v>0.25</v>
       </c>
       <c r="AA17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -5800,28 +7890,28 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18">
@@ -5969,7 +8059,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>노성호</t>
+          <t>홍정우</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5979,20 +8069,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14 1/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -6000,34 +8090,32 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K19" t="n">
+        <v>0.8</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S19" t="n">
-        <v>2.5</v>
+        <v>1.26</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -6039,31 +8127,31 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Y19" t="n">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.25</v>
+        <v>0.184</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -6078,28 +8166,28 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="20">
@@ -6108,7 +8196,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>홍정우</t>
+          <t>이승현</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6118,125 +8206,125 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14 1/3</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.4</v>
+        <v>4.34</v>
       </c>
       <c r="F20" t="n">
+        <v>34</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>26</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>16</v>
+      </c>
+      <c r="R20" t="n">
         <v>14</v>
       </c>
-      <c r="G20" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>9</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>8</v>
-      </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>128</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>495</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="n">
         <v>7</v>
       </c>
-      <c r="S20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>226</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>2</v>
-      </c>
       <c r="AL20" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" t="n">
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.43</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="21">
@@ -6392,14 +8480,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15 2/3</t>
+          <t>16 2/3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3.45</v>
+        <v>3.24</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -6431,7 +8519,7 @@
         <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q22" t="n">
         <v>10</v>
@@ -6440,7 +8528,7 @@
         <v>6</v>
       </c>
       <c r="S22" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -6455,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="n">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.233</v>
+        <v>0.222</v>
       </c>
       <c r="AA22" t="n">
         <v>3</v>
@@ -6506,13 +8594,13 @@
         <v>2</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP22" t="n">
         <v>25</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -6658,7 +8746,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>이승민</t>
+          <t>우규민</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6668,55 +8756,53 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5 1/3</t>
+          <t>22 1/3</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.69</v>
+        <v>2.01</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>8</v>
+      </c>
+      <c r="R24" t="n">
         <v>5</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1</v>
-      </c>
       <c r="S24" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -6728,19 +8814,19 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="Y24" t="n">
-        <v>93</v>
+        <v>389</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.111</v>
+        <v>0.284</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -6752,13 +8838,13 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
@@ -6770,25 +8856,25 @@
         <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AP24" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.27</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="25">
@@ -6797,7 +8883,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>우규민</t>
+          <t>이승민</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6807,53 +8893,55 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>21 1/3</t>
+          <t>5 1/3</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>1.69</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>9</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L25" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -6865,67 +8953,67 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="Y25" t="n">
-        <v>369</v>
+        <v>93</v>
       </c>
       <c r="Z25" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>0.27</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>1.22</v>
       </c>
     </row>
     <row r="26">

--- a/삼성_기록.xlsx
+++ b/삼성_기록.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>박상언</t>
+          <t>김재성</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -583,22 +583,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.271</v>
+        <v>0.344</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -607,23 +607,23 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
         <v>8</v>
       </c>
-      <c r="O2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
@@ -631,28 +631,28 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.424</v>
+        <v>0.438</v>
       </c>
       <c r="W2" t="n">
-        <v>0.317</v>
+        <v>0.405</v>
       </c>
       <c r="X2" t="n">
-        <v>0.741</v>
+        <v>0.843</v>
       </c>
       <c r="Y2" t="n">
         <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.385</v>
+        <v>0.474</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="3">
@@ -661,7 +661,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>허인서</t>
+          <t>김태군</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -670,76 +670,76 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.222</v>
+        <v>0.331</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
+        <v>150</v>
+      </c>
+      <c r="G3" t="n">
+        <v>133</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>44</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>55</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
         <v>10</v>
       </c>
-      <c r="G3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
-        <v>0.222</v>
+        <v>0.414</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3</v>
+        <v>0.388</v>
       </c>
       <c r="X3" t="n">
-        <v>0.522</v>
+        <v>0.802</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="4">
@@ -748,7 +748,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>최재훈</t>
+          <t>강민호</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -757,510 +757,75 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.209</v>
+        <v>0.227</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" t="n">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="G4" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N4" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
       <c r="Q4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="U4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="V4" t="n">
-        <v>0.256</v>
+        <v>0.303</v>
       </c>
       <c r="W4" t="n">
-        <v>0.317</v>
+        <v>0.297</v>
       </c>
       <c r="X4" t="n">
-        <v>0.573</v>
+        <v>0.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.256</v>
+        <v>0.226</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>백용환</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>포수</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>이해창</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>포수</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>김재성</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>포수</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="E7" t="n">
-        <v>24</v>
-      </c>
-      <c r="F7" t="n">
-        <v>71</v>
-      </c>
-      <c r="G7" t="n">
-        <v>60</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>20</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>26</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>15</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.143</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>김태군</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>포수</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="E8" t="n">
-        <v>54</v>
-      </c>
-      <c r="F8" t="n">
-        <v>149</v>
-      </c>
-      <c r="G8" t="n">
-        <v>132</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
-      </c>
-      <c r="I8" t="n">
-        <v>44</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>55</v>
-      </c>
-      <c r="N8" t="n">
-        <v>14</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>10</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>20</v>
-      </c>
-      <c r="U8" t="n">
-        <v>8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.667</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>강민호</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>포수</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.226</v>
-      </c>
-      <c r="E9" t="n">
-        <v>65</v>
-      </c>
-      <c r="F9" t="n">
-        <v>231</v>
-      </c>
-      <c r="G9" t="n">
-        <v>208</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I9" t="n">
-        <v>47</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>63</v>
-      </c>
-      <c r="N9" t="n">
-        <v>28</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>18</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>30</v>
-      </c>
-      <c r="U9" t="n">
-        <v>13</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="AA9" t="n">
         <v>0.333</v>
       </c>
     </row>
@@ -1275,7 +840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1421,7 +986,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>노시환</t>
+          <t>김지찬</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1430,76 +995,76 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.296</v>
+        <v>0.28</v>
       </c>
       <c r="E2" t="n">
+        <v>57</v>
+      </c>
+      <c r="F2" t="n">
+        <v>233</v>
+      </c>
+      <c r="G2" t="n">
+        <v>200</v>
+      </c>
+      <c r="H2" t="n">
+        <v>36</v>
+      </c>
+      <c r="I2" t="n">
         <v>56</v>
       </c>
-      <c r="F2" t="n">
-        <v>230</v>
-      </c>
-      <c r="G2" t="n">
-        <v>196</v>
-      </c>
-      <c r="H2" t="n">
-        <v>29</v>
-      </c>
-      <c r="I2" t="n">
-        <v>58</v>
-      </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
+        <v>17</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>24</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>31</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>31</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>45</v>
-      </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.408</v>
+        <v>0.35</v>
       </c>
       <c r="W2" t="n">
-        <v>0.396</v>
+        <v>0.357</v>
       </c>
       <c r="X2" t="n">
-        <v>0.804</v>
+        <v>0.707</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.419</v>
+        <v>0.333</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1508,7 +1073,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>정은원</t>
+          <t>오선진</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1517,73 +1082,73 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.283</v>
+        <v>0.277</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
-        <v>323</v>
+        <v>185</v>
       </c>
       <c r="G3" t="n">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>13</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>29</v>
+      </c>
+      <c r="U3" t="n">
         <v>3</v>
       </c>
-      <c r="Q3" t="n">
-        <v>40</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>60</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>23</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0.297</v>
+        <v>0.333</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1595,7 +1160,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>김인환</t>
+          <t>오재일</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1604,76 +1169,76 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>0.268</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F4" t="n">
-        <v>190</v>
+        <v>301</v>
       </c>
       <c r="G4" t="n">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="N4" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.438</v>
+        <v>0.471</v>
       </c>
       <c r="W4" t="n">
-        <v>0.311</v>
+        <v>0.352</v>
       </c>
       <c r="X4" t="n">
-        <v>0.749</v>
+        <v>0.823</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.265</v>
+        <v>0.282</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1682,7 +1247,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>변우혁</t>
+          <t>이해승</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1691,76 +1256,76 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.245</v>
+        <v>0.265</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="G5" t="n">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="H5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="Y5" t="n">
         <v>6</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>17</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3</v>
-      </c>
       <c r="Z5" t="n">
-        <v>0.167</v>
+        <v>0.318</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1769,7 +1334,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>박정현</t>
+          <t>김동진</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1778,46 +1343,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.241</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1826,28 +1391,28 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.324</v>
+        <v>0.5</v>
       </c>
       <c r="W6" t="n">
-        <v>0.267</v>
+        <v>0.25</v>
       </c>
       <c r="X6" t="n">
-        <v>0.591</v>
+        <v>0.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1856,7 +1421,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>하주석</t>
+          <t>강한울</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1865,76 +1430,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.218</v>
+        <v>0.241</v>
       </c>
       <c r="E7" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F7" t="n">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="G7" t="n">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="H7" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>24</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>28</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="Y7" t="n">
         <v>3</v>
       </c>
-      <c r="M7" t="n">
-        <v>61</v>
-      </c>
-      <c r="N7" t="n">
-        <v>31</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>16</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>62</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.279</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
       <c r="Z7" t="n">
-        <v>0.258</v>
+        <v>0.167</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
@@ -1943,7 +1508,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>이성곤</t>
+          <t>이재현</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1952,76 +1517,76 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.206</v>
+        <v>0.228</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="G8" t="n">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="H8" t="n">
+        <v>16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>34</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>4</v>
       </c>
-      <c r="I8" t="n">
-        <v>14</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>29</v>
+      </c>
+      <c r="U8" t="n">
         <v>4</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>12</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>23</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0.25</v>
+        <v>0.322</v>
       </c>
       <c r="W8" t="n">
-        <v>0.325</v>
+        <v>0.243</v>
       </c>
       <c r="X8" t="n">
-        <v>0.575</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.125</v>
+        <v>0.205</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2030,7 +1595,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>이도윤</t>
+          <t>이원석</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2039,76 +1604,76 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.165</v>
+        <v>0.222</v>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="G9" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>37</v>
+      </c>
+      <c r="N9" t="n">
+        <v>18</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>22</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
+        <v>12</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>29</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="Y9" t="n">
         <v>4</v>
       </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>24</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1</v>
-      </c>
       <c r="Z9" t="n">
-        <v>0.25</v>
+        <v>0.222</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2117,7 +1682,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>정민규</t>
+          <t>이태훈</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2126,19 +1691,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -2165,46 +1730,46 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="W10" t="n">
-        <v>0.167</v>
+        <v>0.25</v>
       </c>
       <c r="X10" t="n">
-        <v>0.297</v>
+        <v>0.45</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>김지찬</t>
+          <t>최영진</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2213,85 +1778,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.28</v>
+        <v>0.188</v>
       </c>
       <c r="E11" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F11" t="n">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="G11" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H11" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>0.35</v>
+        <v>0.313</v>
       </c>
       <c r="W11" t="n">
-        <v>0.357</v>
+        <v>0.278</v>
       </c>
       <c r="X11" t="n">
-        <v>0.707</v>
+        <v>0.591</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.333</v>
+        <v>0.182</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>오재일</t>
+          <t>안주형</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2300,160 +1865,160 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.271</v>
+        <v>0.176</v>
       </c>
       <c r="E12" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>4</v>
       </c>
-      <c r="Q12" t="n">
-        <v>35</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>73</v>
-      </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.477</v>
+        <v>0.176</v>
       </c>
       <c r="W12" t="n">
-        <v>0.354</v>
+        <v>0.222</v>
       </c>
       <c r="X12" t="n">
-        <v>0.831</v>
+        <v>0.398</v>
       </c>
       <c r="Y12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.289</v>
+        <v>0.143</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>공민규</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>3</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>이해승</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>내야수</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="E13" t="n">
-        <v>27</v>
-      </c>
-      <c r="F13" t="n">
-        <v>88</v>
-      </c>
-      <c r="G13" t="n">
-        <v>83</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>25</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>25</v>
-      </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.301</v>
+        <v>0.167</v>
       </c>
       <c r="W13" t="n">
-        <v>0.265</v>
+        <v>0.167</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.334</v>
       </c>
       <c r="Y13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.318</v>
+        <v>0.333</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2461,11 +2026,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>오선진</t>
+          <t>김상수</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2474,73 +2039,73 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.258</v>
+        <v>0.164</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="G14" t="n">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>0.342</v>
+        <v>0.247</v>
       </c>
       <c r="W14" t="n">
-        <v>0.314</v>
+        <v>0.265</v>
       </c>
       <c r="X14" t="n">
-        <v>0.656</v>
+        <v>0.512</v>
       </c>
       <c r="Y14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.3</v>
+        <v>0.318</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2548,50 +2113,50 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>김호재</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19</v>
+      </c>
+      <c r="F15" t="n">
+        <v>26</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>5</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>김동진</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>내야수</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2600,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2609,25 +2174,25 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="W15" t="n">
-        <v>0.25</v>
+        <v>0.192</v>
       </c>
       <c r="X15" t="n">
-        <v>0.75</v>
+        <v>0.392</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2635,871 +2200,88 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>이성규</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
         <v>6</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>강한울</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>내야수</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.241</v>
-      </c>
-      <c r="E16" t="n">
-        <v>49</v>
-      </c>
-      <c r="F16" t="n">
-        <v>91</v>
-      </c>
-      <c r="G16" t="n">
-        <v>83</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>24</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>6</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>28</v>
-      </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>0.289</v>
+        <v>0.05</v>
       </c>
       <c r="W16" t="n">
-        <v>0.289</v>
+        <v>0.269</v>
       </c>
       <c r="X16" t="n">
-        <v>0.578</v>
+        <v>0.319</v>
       </c>
       <c r="Y16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
         <v>0.167</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>이원석</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>내야수</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="E17" t="n">
-        <v>29</v>
-      </c>
-      <c r="F17" t="n">
-        <v>119</v>
-      </c>
-      <c r="G17" t="n">
-        <v>99</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11</v>
-      </c>
-      <c r="I17" t="n">
-        <v>22</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>37</v>
-      </c>
-      <c r="N17" t="n">
-        <v>18</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>12</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>29</v>
-      </c>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.374</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.293</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>이재현</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>내야수</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="E18" t="n">
-        <v>46</v>
-      </c>
-      <c r="F18" t="n">
-        <v>149</v>
-      </c>
-      <c r="G18" t="n">
-        <v>144</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15</v>
-      </c>
-      <c r="I18" t="n">
-        <v>32</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>43</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>28</v>
-      </c>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.238</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.537</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>이태훈</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>내야수</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>16</v>
-      </c>
-      <c r="G19" t="n">
-        <v>15</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>4</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>최영진</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>내야수</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E20" t="n">
-        <v>42</v>
-      </c>
-      <c r="F20" t="n">
-        <v>90</v>
-      </c>
-      <c r="G20" t="n">
-        <v>79</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>25</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>8</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>19</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.267</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>공민규</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>내야수</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>안주형</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>내야수</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="E22" t="n">
-        <v>12</v>
-      </c>
-      <c r="F22" t="n">
-        <v>14</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.398</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>김상수</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>내야수</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="E23" t="n">
-        <v>20</v>
-      </c>
-      <c r="F23" t="n">
-        <v>83</v>
-      </c>
-      <c r="G23" t="n">
-        <v>73</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>18</v>
-      </c>
-      <c r="N23" t="n">
-        <v>12</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>10</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>16</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>김호재</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>내야수</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E24" t="n">
-        <v>19</v>
-      </c>
-      <c r="F24" t="n">
-        <v>26</v>
-      </c>
-      <c r="G24" t="n">
-        <v>25</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>7</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>이성규</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>내야수</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E25" t="n">
-        <v>9</v>
-      </c>
-      <c r="F25" t="n">
-        <v>26</v>
-      </c>
-      <c r="G25" t="n">
-        <v>20</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" t="n">
-        <v>6</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.319</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="AA25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,7 +2296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3660,7 +2442,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>장운호</t>
+          <t>피렐라</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3669,73 +2451,73 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3</v>
+        <v>0.334</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
+        <v>333</v>
+      </c>
+      <c r="G2" t="n">
+        <v>293</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>98</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="n">
+        <v>155</v>
+      </c>
+      <c r="N2" t="n">
+        <v>50</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>32</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8</v>
+      </c>
+      <c r="T2" t="n">
         <v>35</v>
       </c>
-      <c r="G2" t="n">
+      <c r="U2" t="n">
+        <v>12</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="Y2" t="n">
         <v>30</v>
       </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>8</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3</v>
-      </c>
       <c r="Z2" t="n">
-        <v>0.273</v>
+        <v>0.352</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -3747,7 +2529,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>터크먼</t>
+          <t>김현준</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3756,76 +2538,76 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.324</v>
       </c>
       <c r="E3" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>343</v>
+        <v>174</v>
       </c>
       <c r="G3" t="n">
-        <v>310</v>
+        <v>148</v>
       </c>
       <c r="H3" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="J3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>59</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
         <v>4</v>
       </c>
-      <c r="M3" t="n">
-        <v>125</v>
-      </c>
-      <c r="N3" t="n">
-        <v>16</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="U3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.403</v>
+        <v>0.399</v>
       </c>
       <c r="W3" t="n">
-        <v>0.353</v>
+        <v>0.412</v>
       </c>
       <c r="X3" t="n">
-        <v>0.756</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.189</v>
+        <v>0.333</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3834,7 +2616,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>유로결</t>
+          <t>구자욱</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3843,73 +2625,73 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.286</v>
+        <v>0.28</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>0.286</v>
+        <v>0.381</v>
       </c>
       <c r="W4" t="n">
-        <v>0.286</v>
+        <v>0.32</v>
       </c>
       <c r="X4" t="n">
-        <v>0.572</v>
+        <v>0.701</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2</v>
+        <v>0.304</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -3921,7 +2703,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>권광민</t>
+          <t>김동엽</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3930,76 +2712,76 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.233</v>
+        <v>0.244</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>32</v>
+      </c>
+      <c r="N5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>14</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>19</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>13</v>
-      </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.317</v>
+        <v>0.372</v>
       </c>
       <c r="W5" t="n">
-        <v>0.373</v>
+        <v>0.267</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.286</v>
+        <v>0.143</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -4008,7 +2790,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>노수광</t>
+          <t>김재혁</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4017,76 +2799,76 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.232</v>
+        <v>0.242</v>
       </c>
       <c r="E6" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="G6" t="n">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
         <v>4</v>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>19</v>
-      </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.376</v>
+        <v>0.273</v>
       </c>
       <c r="W6" t="n">
-        <v>0.303</v>
+        <v>0.333</v>
       </c>
       <c r="X6" t="n">
-        <v>0.679</v>
+        <v>0.606</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -4095,7 +2877,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이진영</t>
+          <t>김성윤</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4104,76 +2886,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.218</v>
+        <v>0.217</v>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>7</v>
       </c>
-      <c r="M7" t="n">
-        <v>69</v>
-      </c>
       <c r="N7" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.406</v>
+        <v>0.304</v>
       </c>
       <c r="W7" t="n">
-        <v>0.273</v>
+        <v>0.357</v>
       </c>
       <c r="X7" t="n">
-        <v>0.679</v>
+        <v>0.661</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.268</v>
+        <v>0.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4182,7 +2964,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>김태연</t>
+          <t>김헌곤</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4191,22 +2973,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.214</v>
+        <v>0.203</v>
       </c>
       <c r="E8" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F8" t="n">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="G8" t="n">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="H8" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
         <v>7</v>
@@ -4215,52 +2997,52 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>46</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
         <v>3</v>
       </c>
-      <c r="M8" t="n">
-        <v>60</v>
-      </c>
-      <c r="N8" t="n">
-        <v>27</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V8" t="n">
-        <v>0.291</v>
+        <v>0.24</v>
       </c>
       <c r="W8" t="n">
-        <v>0.281</v>
+        <v>0.235</v>
       </c>
       <c r="X8" t="n">
-        <v>0.572</v>
+        <v>0.475</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.226</v>
+        <v>0.171</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
@@ -4269,7 +3051,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>임종찬</t>
+          <t>박승규</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4278,76 +3060,76 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.189</v>
+        <v>0.191</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G9" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>10</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>17</v>
-      </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.321</v>
+        <v>0.213</v>
       </c>
       <c r="W9" t="n">
-        <v>0.228</v>
+        <v>0.208</v>
       </c>
       <c r="X9" t="n">
-        <v>0.549</v>
+        <v>0.421</v>
       </c>
       <c r="Y9" t="n">
         <v>2</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.222</v>
+        <v>0.182</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
@@ -4356,7 +3138,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이원석</t>
+          <t>송준석</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4365,23 +3147,23 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.13</v>
+        <v>0.154</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
         <v>4</v>
       </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
@@ -4389,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -4404,34 +3186,34 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>0.261</v>
+        <v>0.154</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="X10" t="n">
-        <v>0.461</v>
+        <v>0.368</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -4443,7 +3225,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>원혁재</t>
+          <t>김성표</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4452,25 +3234,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.095</v>
+        <v>0.143</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -4479,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -4491,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -4500,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -4509,16 +3291,16 @@
         <v>0.143</v>
       </c>
       <c r="W11" t="n">
-        <v>0.174</v>
+        <v>0.2</v>
       </c>
       <c r="X11" t="n">
-        <v>0.317</v>
+        <v>0.343</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -4526,11 +3308,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>피렐라</t>
+          <t>윤정빈</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4539,37 +3321,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -4578,906 +3360,36 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.524</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9340000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.349</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>김현준</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>외야수</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="E13" t="n">
-        <v>59</v>
-      </c>
-      <c r="F13" t="n">
-        <v>168</v>
-      </c>
-      <c r="G13" t="n">
-        <v>142</v>
-      </c>
-      <c r="H13" t="n">
-        <v>25</v>
-      </c>
-      <c r="I13" t="n">
-        <v>45</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>56</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>19</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>29</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.803</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>구자욱</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>외야수</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E14" t="n">
-        <v>40</v>
-      </c>
-      <c r="F14" t="n">
-        <v>179</v>
-      </c>
-      <c r="G14" t="n">
-        <v>168</v>
-      </c>
-      <c r="H14" t="n">
-        <v>22</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>64</v>
-      </c>
-      <c r="N14" t="n">
-        <v>19</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>39</v>
-      </c>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>김동엽</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>외야수</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="E15" t="n">
-        <v>25</v>
-      </c>
-      <c r="F15" t="n">
-        <v>90</v>
-      </c>
-      <c r="G15" t="n">
-        <v>86</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-      <c r="I15" t="n">
-        <v>21</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>32</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>20</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>김재혁</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>외야수</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15</v>
-      </c>
-      <c r="F16" t="n">
-        <v>39</v>
-      </c>
-      <c r="G16" t="n">
-        <v>33</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>9</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" t="n">
-        <v>9</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.606</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>김성윤</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>외야수</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="E17" t="n">
-        <v>17</v>
-      </c>
-      <c r="F17" t="n">
-        <v>28</v>
-      </c>
-      <c r="G17" t="n">
-        <v>23</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" t="n">
-        <v>6</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.661</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>김헌곤</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>외야수</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="E18" t="n">
-        <v>64</v>
-      </c>
-      <c r="F18" t="n">
-        <v>201</v>
-      </c>
-      <c r="G18" t="n">
-        <v>187</v>
-      </c>
-      <c r="H18" t="n">
-        <v>16</v>
-      </c>
-      <c r="I18" t="n">
-        <v>37</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>43</v>
-      </c>
-      <c r="N18" t="n">
-        <v>15</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>8</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>20</v>
-      </c>
-      <c r="U18" t="n">
-        <v>8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.461</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>박승규</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>외야수</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="E19" t="n">
-        <v>37</v>
-      </c>
-      <c r="F19" t="n">
-        <v>50</v>
-      </c>
-      <c r="G19" t="n">
-        <v>46</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>10</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>11</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.213</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>송준석</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>외야수</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E20" t="n">
-        <v>13</v>
-      </c>
-      <c r="F20" t="n">
-        <v>28</v>
-      </c>
-      <c r="G20" t="n">
-        <v>26</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>김성표</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>외야수</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="E21" t="n">
-        <v>14</v>
-      </c>
-      <c r="F21" t="n">
-        <v>15</v>
-      </c>
-      <c r="G21" t="n">
-        <v>14</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>윤정빈</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>외야수</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6002,14 +3914,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81 1/3</t>
+          <t>87 1/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.43</v>
+        <v>3.71</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -6027,28 +3939,28 @@
         <v>0.444</v>
       </c>
       <c r="L4" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Q4" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="R4" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -6063,16 +3975,16 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="Y4" t="n">
-        <v>1297</v>
+        <v>1390</v>
       </c>
       <c r="Z4" t="n">
         <v>0.255</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
         <v>1</v>
@@ -6093,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
         <v>4</v>
@@ -6114,13 +4026,13 @@
         <v>7</v>
       </c>
       <c r="AO4" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AP4" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -6677,7 +4589,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>박세웅</t>
+          <t>이재익</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6687,55 +4599,53 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1 2/3</t>
+          <t>19 1/3</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>7.45</v>
       </c>
       <c r="F9" t="n">
+        <v>26</v>
+      </c>
+      <c r="G9" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -6750,25 +4660,25 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>332</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2</v>
+        <v>0.325</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -6786,30 +4696,28 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO9" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="10">
@@ -6818,7 +4726,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>임대한</t>
+          <t>최하늘</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6828,125 +4736,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13 2/3</t>
+          <t>5 2/3</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.27</v>
+        <v>6.35</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.667</v>
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>105</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
         <v>9</v>
       </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>11</v>
-      </c>
-      <c r="R10" t="n">
-        <v>8</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>242</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
@@ -6955,7 +4865,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이재익</t>
+          <t>김윤수</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6965,53 +4875,53 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19 1/3</t>
+          <t>21 1/3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7.45</v>
+        <v>6.33</v>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="L11" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q11" t="n">
         <v>19</v>
       </c>
       <c r="R11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S11" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -7023,52 +4933,52 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Y11" t="n">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.325</v>
+        <v>0.262</v>
       </c>
       <c r="AA11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK11" t="n">
         <v>3</v>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>5</v>
-      </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -7077,13 +4987,13 @@
         <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.42</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -7092,7 +5002,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>최하늘</t>
+          <t>박정준</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7102,55 +5012,55 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5 2/3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
         <v>4</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S12" t="n">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -7165,19 +5075,19 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="n">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.261</v>
+        <v>0.256</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7216,10 +5126,10 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.5</v>
@@ -7231,7 +5141,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>박정준</t>
+          <t>이승현</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7241,127 +5151,125 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6.3</v>
+        <v>5.88</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>17</v>
+      </c>
+      <c r="R13" t="n">
+        <v>17</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>121</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>486</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL13" t="n">
         <v>5</v>
       </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>7</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>173</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.5</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="14">
@@ -7370,7 +5278,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>이승현</t>
+          <t>문용익</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7380,17 +5288,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>16 1/3</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.88</v>
+        <v>5.51</v>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -7399,106 +5307,106 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L14" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>12</v>
+      </c>
+      <c r="R14" t="n">
+        <v>10</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>314</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
         <v>19</v>
       </c>
-      <c r="Q14" t="n">
-        <v>17</v>
-      </c>
-      <c r="R14" t="n">
-        <v>17</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>121</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>486</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.307</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>39</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>0.36</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="15">
@@ -7507,7 +5415,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>김윤수</t>
+          <t>임대한</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7517,53 +5425,53 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20 1/3</t>
+          <t>13 2/3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.75</v>
+        <v>5.27</v>
       </c>
       <c r="F15" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="L15" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="n">
         <v>11</v>
       </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>17</v>
-      </c>
       <c r="R15" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -7575,16 +5483,16 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="Y15" t="n">
-        <v>363</v>
+        <v>242</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.253</v>
+        <v>0.24</v>
       </c>
       <c r="AA15" t="n">
         <v>5</v>
@@ -7593,16 +5501,16 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -7617,25 +5525,25 @@
         <v>2</v>
       </c>
       <c r="AK15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7644,7 +5552,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>문용익</t>
+          <t>박세웅</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7654,20 +5562,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16 1/3</t>
+          <t>1 2/3</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.51</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -7675,32 +5583,34 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.5</v>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L16" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -7715,64 +5625,66 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.313</v>
+        <v>0.2</v>
       </c>
       <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="n">
         <v>3</v>
       </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
       <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0.89</v>
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -7781,7 +5693,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>노성호</t>
+          <t>이승현</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7791,127 +5703,125 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.5</v>
+        <v>4.97</v>
       </c>
       <c r="F17" t="n">
+        <v>35</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>28</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>18</v>
+      </c>
+      <c r="R17" t="n">
+        <v>16</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>130</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>506</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>3</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>2</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF17" t="n">
         <v>3</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL17" t="n">
         <v>11</v>
       </c>
-      <c r="Y17" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18">
@@ -8059,7 +5969,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>홍정우</t>
+          <t>노성호</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -8069,20 +5979,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14 1/3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -8090,32 +6000,34 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.8</v>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>3</v>
       </c>
-      <c r="N19" t="n">
-        <v>9</v>
-      </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.26</v>
+        <v>2.5</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -8127,31 +6039,31 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.184</v>
+        <v>0.25</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -8166,28 +6078,28 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="20">
@@ -8196,7 +6108,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>이승현</t>
+          <t>홍정우</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -8206,125 +6118,125 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14 1/3</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="F20" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>226</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>4</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>26</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="n">
-        <v>13</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>16</v>
-      </c>
-      <c r="R20" t="n">
-        <v>14</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>128</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>495</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1</v>
-      </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AL20" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AP20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.3</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="21">
@@ -8619,20 +6531,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.4</v>
+        <v>2.61</v>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>18</v>
@@ -8641,13 +6553,13 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
       <c r="L23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>7</v>
@@ -8659,13 +6571,13 @@
         <v>30</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -8680,10 +6592,10 @@
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Y23" t="n">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="Z23" t="n">
         <v>0.264</v>
@@ -8719,7 +6631,7 @@
         <v>2</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -8734,10 +6646,10 @@
         <v>14</v>
       </c>
       <c r="AP23" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="24">
@@ -8756,14 +6668,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22 1/3</t>
+          <t>23 1/3</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -8793,7 +6705,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q24" t="n">
         <v>8</v>
@@ -8802,7 +6714,7 @@
         <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -8817,13 +6729,13 @@
         <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Y24" t="n">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.284</v>
+        <v>0.276</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
@@ -8859,7 +6771,7 @@
         <v>2</v>
       </c>
       <c r="AL24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM24" t="n">
         <v>1</v>
@@ -8871,10 +6783,10 @@
         <v>28</v>
       </c>
       <c r="AP24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="25">

--- a/삼성_기록.xlsx
+++ b/삼성_기록.xlsx
@@ -583,22 +583,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="E2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2" t="n">
+        <v>72</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
         <v>25</v>
-      </c>
-      <c r="F2" t="n">
-        <v>75</v>
-      </c>
-      <c r="G2" t="n">
-        <v>64</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>22</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -631,25 +631,25 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.438</v>
+        <v>0.431</v>
       </c>
       <c r="W2" t="n">
-        <v>0.405</v>
+        <v>0.402</v>
       </c>
       <c r="X2" t="n">
-        <v>0.843</v>
+        <v>0.833</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.474</v>
+        <v>0.435</v>
       </c>
       <c r="AA2" t="n">
         <v>0.143</v>
@@ -670,37 +670,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.331</v>
+        <v>0.336</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G3" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>59</v>
+      </c>
+      <c r="N3" t="n">
         <v>15</v>
-      </c>
-      <c r="I3" t="n">
-        <v>44</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>55</v>
-      </c>
-      <c r="N3" t="n">
-        <v>14</v>
       </c>
       <c r="O3" t="n">
         <v>3</v>
@@ -718,28 +718,28 @@
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U3" t="n">
         <v>8</v>
       </c>
       <c r="V3" t="n">
-        <v>0.414</v>
+        <v>0.421</v>
       </c>
       <c r="W3" t="n">
-        <v>0.388</v>
+        <v>0.39</v>
       </c>
       <c r="X3" t="n">
-        <v>0.802</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.286</v>
+        <v>0.306</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.227</v>
+        <v>0.221</v>
       </c>
       <c r="E4" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G4" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H4" t="n">
         <v>15</v>
@@ -796,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R4" t="n">
         <v>3</v>
@@ -805,19 +805,19 @@
         <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U4" t="n">
         <v>13</v>
       </c>
       <c r="V4" t="n">
-        <v>0.303</v>
+        <v>0.295</v>
       </c>
       <c r="W4" t="n">
-        <v>0.297</v>
+        <v>0.295</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>김지찬</t>
+          <t>오재일</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -995,73 +995,73 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F2" t="n">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="G2" t="n">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="H2" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2" t="n">
+        <v>79</v>
+      </c>
+      <c r="J2" t="n">
+        <v>21</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13</v>
+      </c>
+      <c r="M2" t="n">
+        <v>139</v>
+      </c>
+      <c r="N2" t="n">
+        <v>52</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
         <v>36</v>
       </c>
-      <c r="I2" t="n">
-        <v>56</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>17</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>24</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="X2" t="n">
-        <v>0.707</v>
+        <v>0.859</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>오선진</t>
+          <t>김지찬</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1082,70 +1082,70 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.277</v>
+        <v>0.28</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F3" t="n">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="G3" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.365</v>
+        <v>0.35</v>
       </c>
       <c r="W3" t="n">
-        <v>0.333</v>
+        <v>0.357</v>
       </c>
       <c r="X3" t="n">
-        <v>0.698</v>
+        <v>0.707</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>0.333</v>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>오재일</t>
+          <t>오선진</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1169,73 +1169,73 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.268</v>
+        <v>0.28</v>
       </c>
       <c r="E4" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F4" t="n">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="G4" t="n">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="N4" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>30</v>
+      </c>
+      <c r="U4" t="n">
         <v>5</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
       <c r="V4" t="n">
-        <v>0.471</v>
+        <v>0.36</v>
       </c>
       <c r="W4" t="n">
-        <v>0.352</v>
+        <v>0.339</v>
       </c>
       <c r="X4" t="n">
-        <v>0.823</v>
+        <v>0.699</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.282</v>
+        <v>0.333</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1256,22 +1256,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.265</v>
+        <v>0.261</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
+        <v>94</v>
+      </c>
+      <c r="G5" t="n">
         <v>88</v>
       </c>
-      <c r="G5" t="n">
-        <v>83</v>
-      </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5" t="n">
         <v>5</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1310,19 +1310,19 @@
         <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0.301</v>
+        <v>0.295</v>
       </c>
       <c r="W5" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Y5" t="n">
         <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.318</v>
+        <v>0.333</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>이재현</t>
+          <t>이원석</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1517,73 +1517,73 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.228</v>
+        <v>0.237</v>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G8" t="n">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>48</v>
       </c>
       <c r="N8" t="n">
+        <v>23</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
         <v>12</v>
       </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>0.322</v>
+        <v>0.407</v>
       </c>
       <c r="W8" t="n">
-        <v>0.243</v>
+        <v>0.296</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.703</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.205</v>
+        <v>0.286</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>이원석</t>
+          <t>이재현</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F9" t="n">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="G9" t="n">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I9" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1631,46 +1631,46 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N9" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>12</v>
-      </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U9" t="n">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.374</v>
+        <v>0.313</v>
       </c>
       <c r="W9" t="n">
-        <v>0.293</v>
+        <v>0.246</v>
       </c>
       <c r="X9" t="n">
-        <v>0.667</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.222</v>
+        <v>0.225</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1868,10 +1868,10 @@
         <v>0.176</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
         <v>17</v>
@@ -1895,13 +1895,13 @@
         <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1922,10 +1922,10 @@
         <v>0.176</v>
       </c>
       <c r="W12" t="n">
-        <v>0.222</v>
+        <v>0.211</v>
       </c>
       <c r="X12" t="n">
-        <v>0.398</v>
+        <v>0.387</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>공민규</t>
+          <t>김상수</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1952,37 +1952,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.167</v>
+        <v>0.164</v>
       </c>
       <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="n">
+        <v>83</v>
+      </c>
+      <c r="G13" t="n">
+        <v>73</v>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2000,25 +2000,25 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0.167</v>
+        <v>0.247</v>
       </c>
       <c r="W13" t="n">
-        <v>0.167</v>
+        <v>0.265</v>
       </c>
       <c r="X13" t="n">
-        <v>0.334</v>
+        <v>0.512</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.333</v>
+        <v>0.318</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>김상수</t>
+          <t>김호재</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2039,37 +2039,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.164</v>
+        <v>0.16</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2087,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U14" t="n">
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>0.247</v>
+        <v>0.2</v>
       </c>
       <c r="W14" t="n">
-        <v>0.265</v>
+        <v>0.192</v>
       </c>
       <c r="X14" t="n">
-        <v>0.512</v>
+        <v>0.392</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.318</v>
+        <v>0.167</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>김호재</t>
+          <t>공민규</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2126,73 +2126,73 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.16</v>
+        <v>0.125</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>4</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>7</v>
-      </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="W15" t="n">
-        <v>0.192</v>
+        <v>0.125</v>
       </c>
       <c r="X15" t="n">
-        <v>0.392</v>
+        <v>0.25</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.167</v>
+        <v>0.333</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2451,37 +2451,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.334</v>
+        <v>0.342</v>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="G2" t="n">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I2" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M2" t="n">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="N2" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -2490,31 +2490,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" t="n">
         <v>8</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U2" t="n">
         <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>0.529</v>
+        <v>0.571</v>
       </c>
       <c r="W2" t="n">
-        <v>0.414</v>
+        <v>0.42</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.991</v>
       </c>
       <c r="Y2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="n">
         <v>0.352</v>
@@ -2538,25 +2538,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G3" t="n">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N3" t="n">
         <v>10</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -2586,25 +2586,25 @@
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0.399</v>
+        <v>0.395</v>
       </c>
       <c r="W3" t="n">
-        <v>0.412</v>
+        <v>0.405</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.333</v>
+        <v>0.296</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
@@ -2886,23 +2886,23 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.217</v>
+        <v>0.24</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
         <v>6</v>
       </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
@@ -2910,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -2940,13 +2940,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.304</v>
+        <v>0.44</v>
       </c>
       <c r="W7" t="n">
-        <v>0.357</v>
+        <v>0.367</v>
       </c>
       <c r="X7" t="n">
-        <v>0.661</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -2973,22 +2973,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.203</v>
+        <v>0.206</v>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F8" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G8" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J8" t="n">
         <v>7</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
@@ -3021,25 +3021,25 @@
         <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U8" t="n">
         <v>9</v>
       </c>
       <c r="V8" t="n">
-        <v>0.24</v>
+        <v>0.256</v>
       </c>
       <c r="W8" t="n">
-        <v>0.235</v>
+        <v>0.237</v>
       </c>
       <c r="X8" t="n">
-        <v>0.475</v>
+        <v>0.493</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.171</v>
+        <v>0.182</v>
       </c>
       <c r="AA8" t="n">
         <v>0.25</v>
@@ -3060,22 +3060,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.191</v>
+        <v>0.193</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G9" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -3087,20 +3087,20 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
       </c>
       <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
@@ -3108,28 +3108,28 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.213</v>
+        <v>0.211</v>
       </c>
       <c r="W9" t="n">
-        <v>0.208</v>
+        <v>0.233</v>
       </c>
       <c r="X9" t="n">
-        <v>0.421</v>
+        <v>0.444</v>
       </c>
       <c r="Y9" t="n">
         <v>2</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.182</v>
+        <v>0.167</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="10">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90 2/3</t>
+          <t>96 2/3</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -3665,28 +3665,28 @@
         <v>0.444</v>
       </c>
       <c r="L2" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="R2" t="n">
         <v>25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3695,19 +3695,19 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="Y2" t="n">
-        <v>1600</v>
+        <v>1719</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.226</v>
+        <v>0.227</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>4</v>
@@ -3752,13 +3752,13 @@
         <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AP2" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="3">
@@ -3777,20 +3777,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100 2/3</t>
+          <t>104 1/3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.86</v>
+        <v>3.36</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3799,31 +3799,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.545</v>
+        <v>0.5</v>
       </c>
       <c r="L3" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M3" t="n">
         <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O3" t="n">
         <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="R3" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="S3" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -3838,19 +3838,19 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634</v>
+        <v>1737</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.268</v>
+        <v>0.278</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
         <v>5</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>6</v>
@@ -3886,16 +3886,16 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AP3" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="4">
@@ -4051,20 +4051,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>69 1/3</t>
+          <t>73 1/3</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.23</v>
+        <v>6.63</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -4076,28 +4076,28 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N5" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="R5" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="S5" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1165</v>
+        <v>1250</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.305</v>
+        <v>0.3</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -4163,13 +4163,13 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
+        <v>92</v>
+      </c>
+      <c r="AP5" t="n">
         <v>84</v>
       </c>
-      <c r="AP5" t="n">
-        <v>81</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="6">
@@ -4325,20 +4325,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>32 1/3</t>
+          <t>37 2/3</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5.01</v>
+        <v>5.26</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -4347,31 +4347,31 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="L7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S7" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -4386,22 +4386,22 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="Y7" t="n">
-        <v>565</v>
+        <v>658</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.279</v>
+        <v>0.288</v>
       </c>
       <c r="AA7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD7" t="n">
         <v>3</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>3</v>
@@ -4437,13 +4437,13 @@
         <v>3</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP7" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="8">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>이재익</t>
+          <t>이상민</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4599,53 +4599,55 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19 1/3</t>
+          <t>8 1/3</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7.45</v>
+        <v>1.08</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.75</v>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L9" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q9" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -4657,28 +4659,28 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="n">
-        <v>332</v>
+        <v>173</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.325</v>
+        <v>0.257</v>
       </c>
       <c r="AA9" t="n">
         <v>3</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -4696,10 +4698,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL9" t="n">
         <v>3</v>
@@ -4708,16 +4710,16 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.42</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="10">
@@ -4726,7 +4728,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>최하늘</t>
+          <t>임대한</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4736,55 +4738,53 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5 2/3</t>
+          <t>13 2/3</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6.35</v>
+        <v>5.27</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.667</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -4799,31 +4799,31 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="Y10" t="n">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.261</v>
+        <v>0.24</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -4835,28 +4835,28 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>김윤수</t>
+          <t>이재익</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4875,53 +4875,53 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>21 1/3</t>
+          <t>19 1/3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6.33</v>
+        <v>7.45</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="L11" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
         <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>20</v>
       </c>
       <c r="Q11" t="n">
         <v>19</v>
       </c>
       <c r="R11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S11" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -4933,53 +4933,53 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Y11" t="n">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.262</v>
+        <v>0.325</v>
       </c>
       <c r="AA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK11" t="n">
         <v>5</v>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
         <v>3</v>
       </c>
-      <c r="AL11" t="n">
-        <v>4</v>
-      </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
@@ -4987,13 +4987,13 @@
         <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="12">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>박정준</t>
+          <t>박세웅</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5012,14 +5012,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2 2/3</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6.3</v>
+        <v>6.75</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5039,10 +5039,10 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>5</v>
@@ -5051,16 +5051,16 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -5075,16 +5075,16 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.256</v>
+        <v>0.125</v>
       </c>
       <c r="AA12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -5123,16 +5123,18 @@
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1.5</v>
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -5141,7 +5143,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>이승현</t>
+          <t>김윤수</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5151,53 +5153,53 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23 1/3</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.88</v>
+        <v>6.56</v>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L13" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q13" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="R13" t="n">
         <v>17</v>
       </c>
       <c r="S13" t="n">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -5209,34 +5211,34 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Y13" t="n">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.307</v>
+        <v>0.277</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
         <v>3</v>
       </c>
-      <c r="AD13" t="n">
-        <v>2</v>
-      </c>
       <c r="AE13" t="n">
         <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -5248,13 +5250,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AL13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -5263,13 +5265,13 @@
         <v>2</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.36</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="14">
@@ -5278,7 +5280,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>문용익</t>
+          <t>박정준</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5288,20 +5290,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16 1/3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.51</v>
+        <v>6.3</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5309,104 +5311,106 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.5</v>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>173</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
         <v>10</v>
       </c>
-      <c r="S14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>77</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>314</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
@@ -5415,7 +5419,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>임대한</t>
+          <t>이승현</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5425,17 +5429,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13 2/3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.27</v>
+        <v>5.88</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -5444,106 +5448,106 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="n">
+        <v>17</v>
+      </c>
+      <c r="R15" t="n">
+        <v>17</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>121</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>486</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AA15" t="n">
         <v>11</v>
       </c>
-      <c r="R15" t="n">
-        <v>8</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>242</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="AB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL15" t="n">
         <v>5</v>
       </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>2</v>
-      </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="16">
@@ -5552,7 +5556,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>박세웅</t>
+          <t>이승현</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5562,94 +5566,92 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1 2/3</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="F16" t="n">
+        <v>36</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>11</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>29</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>20</v>
+      </c>
+      <c r="R16" t="n">
+        <v>18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>132</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>509</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
       <c r="AD16" t="n">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -5661,30 +5663,28 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" t="n">
         <v>1</v>
       </c>
       <c r="AO16" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="17">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>이승현</t>
+          <t>문용익</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5703,125 +5703,125 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19 1/3</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.97</v>
+        <v>5.12</v>
       </c>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>23</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>13</v>
+      </c>
+      <c r="R17" t="n">
+        <v>11</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>88</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>357</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AA17" t="n">
         <v>4</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>28</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="n">
-        <v>13</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>18</v>
-      </c>
-      <c r="R17" t="n">
-        <v>16</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>130</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>506</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>5</v>
-      </c>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
       <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>3</v>
       </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1</v>
-      </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AP17" t="n">
         <v>20</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>이상민</t>
+          <t>장필준</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5840,55 +5840,53 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.29</v>
+        <v>5.21</v>
       </c>
       <c r="F18" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>23</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q18" t="n">
         <v>12</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>8</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S18" t="n">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -5900,34 +5898,34 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="Y18" t="n">
-        <v>145</v>
+        <v>333</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.267</v>
+        <v>0.315</v>
       </c>
       <c r="AA18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
         <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
@@ -5945,22 +5943,22 @@
         <v>1</v>
       </c>
       <c r="AL18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.67</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="19">
@@ -5969,7 +5967,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>노성호</t>
+          <t>이승민</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5979,127 +5977,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5 1/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.5</v>
+        <v>1.69</v>
       </c>
       <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>93</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="AP19" t="n">
         <v>11</v>
       </c>
-      <c r="Y19" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>3</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="20">
@@ -6108,7 +6106,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>홍정우</t>
+          <t>최하늘</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6118,125 +6116,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14 1/3</t>
+          <t>7 2/3</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>4</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>134</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP20" t="n">
         <v>9</v>
       </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>8</v>
-      </c>
-      <c r="R20" t="n">
-        <v>7</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>226</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>0.43</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="21">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>장필준</t>
+          <t>노성호</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6255,20 +6255,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.94</v>
+        <v>4.5</v>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -6276,32 +6276,34 @@
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L21" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -6316,28 +6318,28 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.306</v>
+        <v>0.25</v>
       </c>
       <c r="AA21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
@@ -6355,25 +6357,25 @@
         <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.92</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="22">
@@ -6382,7 +6384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>최충연</t>
+          <t>홍정우</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6392,20 +6394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>16 2/3</t>
+          <t>14 1/3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3.24</v>
+        <v>4.4</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -6413,34 +6415,32 @@
       <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K22" t="n">
+        <v>0.8</v>
       </c>
       <c r="L22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="n">
         <v>8</v>
       </c>
-      <c r="O22" t="n">
-        <v>3</v>
-      </c>
-      <c r="P22" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>10</v>
-      </c>
       <c r="R22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S22" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -6452,34 +6452,34 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Y22" t="n">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.222</v>
+        <v>0.184</v>
       </c>
       <c r="AA22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -6491,28 +6491,28 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="n">
         <v>9</v>
       </c>
-      <c r="AL22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>14</v>
-      </c>
       <c r="AP22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="23">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>오승환</t>
+          <t>최충연</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6531,125 +6531,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19 2/3</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.61</v>
+        <v>3.66</v>
       </c>
       <c r="F23" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>16</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>12</v>
+      </c>
+      <c r="R23" t="n">
+        <v>8</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>86</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>336</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO23" t="n">
         <v>18</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="L23" t="n">
-        <v>33</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="n">
-        <v>7</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>11</v>
-      </c>
-      <c r="R23" t="n">
-        <v>9</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" t="n">
-        <v>134</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>558</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>14</v>
-      </c>
       <c r="AP23" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.29</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -6658,7 +6660,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>우규민</t>
+          <t>오승환</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6668,125 +6670,125 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23 1/3</t>
+          <t>32 1/3</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.93</v>
+        <v>3.34</v>
       </c>
       <c r="F24" t="n">
         <v>31</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="L24" t="n">
+        <v>34</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>14</v>
+      </c>
+      <c r="R24" t="n">
+        <v>12</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>142</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>595</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK24" t="n">
         <v>27</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>8</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2</v>
-      </c>
-      <c r="X24" t="n">
-        <v>103</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>399</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>2</v>
-      </c>
       <c r="AL24" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>1</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AP24" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.04</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="25">
@@ -6795,7 +6797,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>이승민</t>
+          <t>우규민</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6805,55 +6807,53 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5 1/3</t>
+          <t>24 2/3</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>9</v>
+      </c>
+      <c r="R25" t="n">
         <v>5</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1</v>
-      </c>
       <c r="S25" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -6865,19 +6865,19 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="Y25" t="n">
-        <v>93</v>
+        <v>429</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.111</v>
+        <v>0.269</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -6889,13 +6889,13 @@
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -6907,25 +6907,25 @@
         <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AP25" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.27</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="26">
